--- a/Code/Results/Cases/Case_5_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_42/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.784361292972022</v>
+        <v>2.462928978262767</v>
       </c>
       <c r="C2">
-        <v>0.6021086535401707</v>
+        <v>0.2974076604836</v>
       </c>
       <c r="D2">
-        <v>0.02576613535881833</v>
+        <v>0.004276918484881875</v>
       </c>
       <c r="E2">
-        <v>0.03322918566617794</v>
+        <v>0.02628085204278707</v>
       </c>
       <c r="F2">
-        <v>2.60409203638136</v>
+        <v>1.915248207029606</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.519918936453848</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04282802770187821</v>
+        <v>0.06128299220163225</v>
       </c>
       <c r="K2">
-        <v>0.5474712670817183</v>
+        <v>0.5665951116971826</v>
       </c>
       <c r="L2">
-        <v>0.1289400567936383</v>
+        <v>0.1576299129040919</v>
       </c>
       <c r="M2">
-        <v>0.5034650615680576</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.4227762780638358</v>
+      </c>
+      <c r="N2">
+        <v>1.432089463835865</v>
+      </c>
+      <c r="O2">
+        <v>1.383592324230364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.538513040765281</v>
+        <v>2.172621982859312</v>
       </c>
       <c r="C3">
-        <v>0.5179220360842294</v>
+        <v>0.2577526354286306</v>
       </c>
       <c r="D3">
-        <v>0.02562009056150316</v>
+        <v>0.003922764738296891</v>
       </c>
       <c r="E3">
-        <v>0.03066802737173724</v>
+        <v>0.02642229421245657</v>
       </c>
       <c r="F3">
-        <v>2.352412181238165</v>
+        <v>1.831857324422288</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.39719263178732</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04027810897351358</v>
+        <v>0.062578852037938</v>
       </c>
       <c r="K3">
-        <v>0.4716967747460856</v>
+        <v>0.4952012911485397</v>
       </c>
       <c r="L3">
-        <v>0.1127144823749795</v>
+        <v>0.145433546358035</v>
       </c>
       <c r="M3">
-        <v>0.4354150992116033</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.376254071678197</v>
+      </c>
+      <c r="N3">
+        <v>1.488998781021479</v>
+      </c>
+      <c r="O3">
+        <v>1.323056991518385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.389805275980393</v>
+        <v>1.997084441336312</v>
       </c>
       <c r="C4">
-        <v>0.4671044778136206</v>
+        <v>0.2336022658866455</v>
       </c>
       <c r="D4">
-        <v>0.02555707858193301</v>
+        <v>0.003712574647797062</v>
       </c>
       <c r="E4">
-        <v>0.0291471270908783</v>
+        <v>0.0265191650611829</v>
       </c>
       <c r="F4">
-        <v>2.202529184983121</v>
+        <v>1.783886078377293</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.324441795975687</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0387786861346715</v>
+        <v>0.0634028466290899</v>
       </c>
       <c r="K4">
-        <v>0.4258894912134537</v>
+        <v>0.4519547552787913</v>
       </c>
       <c r="L4">
-        <v>0.1029685584928117</v>
+        <v>0.1381219586676181</v>
       </c>
       <c r="M4">
-        <v>0.3943640208178607</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.3481658462522006</v>
+      </c>
+      <c r="N4">
+        <v>1.525665806565989</v>
+      </c>
+      <c r="O4">
+        <v>1.288327373078531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.329688353871944</v>
+        <v>1.926164701307357</v>
       </c>
       <c r="C5">
-        <v>0.446582563217703</v>
+        <v>0.2238013595959245</v>
       </c>
       <c r="D5">
-        <v>0.0255373543737818</v>
+        <v>0.003628430686407391</v>
       </c>
       <c r="E5">
-        <v>0.02853921865169973</v>
+        <v>0.02656110925414978</v>
       </c>
       <c r="F5">
-        <v>2.142497100389789</v>
+        <v>1.765100001919578</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.295384535345917</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03818283621161456</v>
+        <v>0.06374576336392868</v>
       </c>
       <c r="K5">
-        <v>0.4073768937848783</v>
+        <v>0.4344629402918869</v>
       </c>
       <c r="L5">
-        <v>0.09904504702523198</v>
+        <v>0.1351839616265877</v>
       </c>
       <c r="M5">
-        <v>0.3777951574700253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.3368284509656903</v>
+      </c>
+      <c r="N5">
+        <v>1.541028568359927</v>
+      </c>
+      <c r="O5">
+        <v>1.274749516534065</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.31973288570498</v>
+        <v>1.914423648470802</v>
       </c>
       <c r="C6">
-        <v>0.4431852789197137</v>
+        <v>0.2221761194725786</v>
       </c>
       <c r="D6">
-        <v>0.02553441819157243</v>
+        <v>0.00361454121116811</v>
       </c>
       <c r="E6">
-        <v>0.02843896182123551</v>
+        <v>0.02656822171825524</v>
       </c>
       <c r="F6">
-        <v>2.132588624769141</v>
+        <v>1.762025251465772</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.290593379684182</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03808477145050126</v>
+        <v>0.06380313542805727</v>
       </c>
       <c r="K6">
-        <v>0.4043114768594336</v>
+        <v>0.4315659119498676</v>
       </c>
       <c r="L6">
-        <v>0.09839627365420611</v>
+        <v>0.1346985346616094</v>
       </c>
       <c r="M6">
-        <v>0.3750528907633282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.3349521462649605</v>
+      </c>
+      <c r="N6">
+        <v>1.543604586996416</v>
+      </c>
+      <c r="O6">
+        <v>1.27252855627205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.388992666467743</v>
+        <v>1.996125597452533</v>
       </c>
       <c r="C7">
-        <v>0.4668269978271269</v>
+        <v>0.2334699349006399</v>
       </c>
       <c r="D7">
-        <v>0.02555678940747441</v>
+        <v>0.003711434133117919</v>
       </c>
       <c r="E7">
-        <v>0.02913888197627479</v>
+        <v>0.02651972080546816</v>
       </c>
       <c r="F7">
-        <v>2.201715489092734</v>
+        <v>1.783629698569911</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.324047616137648</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03877059071106892</v>
+        <v>0.06340744243505769</v>
       </c>
       <c r="K7">
-        <v>0.4256392326283418</v>
+        <v>0.451718343417177</v>
       </c>
       <c r="L7">
-        <v>0.1029154582950582</v>
+        <v>0.1380821714357552</v>
       </c>
       <c r="M7">
-        <v>0.3941399509324057</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.348012519784298</v>
+      </c>
+      <c r="N7">
+        <v>1.525871307434166</v>
+      </c>
+      <c r="O7">
+        <v>1.288141979416828</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.699075630655329</v>
+        <v>2.362225280172368</v>
       </c>
       <c r="C8">
-        <v>0.5728790506772441</v>
+        <v>0.2836877521351369</v>
       </c>
       <c r="D8">
-        <v>0.02570977086820747</v>
+        <v>0.004153098942365041</v>
       </c>
       <c r="E8">
-        <v>0.03233467261819989</v>
+        <v>0.02632750752440338</v>
       </c>
       <c r="F8">
-        <v>2.516270664872593</v>
+        <v>1.885793303632497</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.477021409133968</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04193413885865027</v>
+        <v>0.06172392966207552</v>
       </c>
       <c r="K8">
-        <v>0.521178411686023</v>
+        <v>0.5418456945396741</v>
       </c>
       <c r="L8">
-        <v>0.1232964568615138</v>
+        <v>0.1533860010598076</v>
       </c>
       <c r="M8">
-        <v>0.4798342560994016</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.4066295959552662</v>
+      </c>
+      <c r="N8">
+        <v>1.451345791885281</v>
+      </c>
+      <c r="O8">
+        <v>1.362189356336259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.329062424932829</v>
+        <v>3.105053452471452</v>
       </c>
       <c r="C9">
-        <v>0.7894385246800937</v>
+        <v>0.3841913725792949</v>
       </c>
       <c r="D9">
-        <v>0.02625940213611244</v>
+        <v>0.005092877228862314</v>
       </c>
       <c r="E9">
-        <v>0.03906739523724667</v>
+        <v>0.02603277910154844</v>
       </c>
       <c r="F9">
-        <v>3.176144709204692</v>
+        <v>2.114216436487766</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1.800931020320036</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04873724565720572</v>
+        <v>0.05864689884631114</v>
       </c>
       <c r="K9">
-        <v>0.7155642371782847</v>
+        <v>0.7240890176624717</v>
       </c>
       <c r="L9">
-        <v>0.1653059165945265</v>
+        <v>0.1849483345385536</v>
       </c>
       <c r="M9">
-        <v>0.6549070846994454</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.5259040813123264</v>
+      </c>
+      <c r="N9">
+        <v>1.319514976942529</v>
+      </c>
+      <c r="O9">
+        <v>1.52864405469947</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.811745039179698</v>
+        <v>3.671180320128997</v>
       </c>
       <c r="C10">
-        <v>0.9564053794792642</v>
+        <v>0.4599675982508984</v>
       </c>
       <c r="D10">
-        <v>0.02687623920687088</v>
+        <v>0.005853737587304231</v>
       </c>
       <c r="E10">
-        <v>0.04438498424835657</v>
+        <v>0.02587058383301399</v>
       </c>
       <c r="F10">
-        <v>3.696804758120976</v>
+        <v>2.30287889012213</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2.058610572763953</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05421620274809769</v>
+        <v>0.0565221757076011</v>
       </c>
       <c r="K10">
-        <v>0.8647667597175825</v>
+        <v>0.8626038570476595</v>
       </c>
       <c r="L10">
-        <v>0.1979227825465699</v>
+        <v>0.2093077885951686</v>
       </c>
       <c r="M10">
-        <v>0.789733912324678</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.6170066995174821</v>
+      </c>
+      <c r="N10">
+        <v>1.2323392011346</v>
+      </c>
+      <c r="O10">
+        <v>1.666776374130166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.03731659982526</v>
+        <v>3.934436969212072</v>
       </c>
       <c r="C11">
-        <v>1.034754253223525</v>
+        <v>0.495035770275507</v>
       </c>
       <c r="D11">
-        <v>0.02721935885535132</v>
+        <v>0.00622185435281164</v>
       </c>
       <c r="E11">
-        <v>0.0469070104735394</v>
+        <v>0.02580971295523948</v>
       </c>
       <c r="F11">
-        <v>3.943938392371535</v>
+        <v>2.39415525936721</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2.181436136617805</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05684283468053408</v>
+        <v>0.05558492674142634</v>
       </c>
       <c r="K11">
-        <v>0.9345757230050538</v>
+        <v>0.9269356994239075</v>
       </c>
       <c r="L11">
-        <v>0.2132729154244473</v>
+        <v>0.2206993964389028</v>
       </c>
       <c r="M11">
-        <v>0.8529137151157968</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.6594124165876565</v>
+      </c>
+      <c r="N11">
+        <v>1.195020987850782</v>
+      </c>
+      <c r="O11">
+        <v>1.733772298269045</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.123759497026299</v>
+        <v>4.03506721371798</v>
       </c>
       <c r="C12">
-        <v>1.064833870381477</v>
+        <v>0.5084173398351481</v>
       </c>
       <c r="D12">
-        <v>0.02735990095527541</v>
+        <v>0.006365067036822047</v>
       </c>
       <c r="E12">
-        <v>0.0478789922224081</v>
+        <v>0.02578862923093928</v>
       </c>
       <c r="F12">
-        <v>4.039240457718307</v>
+        <v>2.429589227364644</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2.228880831577328</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0578596402096494</v>
+        <v>0.0552342160908772</v>
       </c>
       <c r="K12">
-        <v>0.9613418303491272</v>
+        <v>0.9515154955770129</v>
       </c>
       <c r="L12">
-        <v>0.2191719944705213</v>
+        <v>0.22506285986168</v>
       </c>
       <c r="M12">
-        <v>0.8771518012994406</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.6756278862786189</v>
+      </c>
+      <c r="N12">
+        <v>1.181248405642137</v>
+      </c>
+      <c r="O12">
+        <v>1.759806677942166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.105094122716253</v>
+        <v>4.013350848451068</v>
       </c>
       <c r="C13">
-        <v>1.058336268298945</v>
+        <v>0.5055305665024434</v>
       </c>
       <c r="D13">
-        <v>0.02732913220878785</v>
+        <v>0.006334042605216972</v>
       </c>
       <c r="E13">
-        <v>0.04766886801049708</v>
+        <v>0.02579308059743246</v>
       </c>
       <c r="F13">
-        <v>4.018634883616812</v>
+        <v>2.42191775734203</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2.218619044674654</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05763961788522032</v>
+        <v>0.05530956100750739</v>
       </c>
       <c r="K13">
-        <v>0.9555616335898094</v>
+        <v>0.9462115780726634</v>
       </c>
       <c r="L13">
-        <v>0.2178974638235758</v>
+        <v>0.2241208127596366</v>
       </c>
       <c r="M13">
-        <v>0.8719169315879896</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.6721282747926409</v>
+      </c>
+      <c r="N13">
+        <v>1.18419822225966</v>
+      </c>
+      <c r="O13">
+        <v>1.754169023346904</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.044406784322291</v>
+        <v>3.942696309962912</v>
       </c>
       <c r="C14">
-        <v>1.037220279207872</v>
+        <v>0.4961345368606942</v>
       </c>
       <c r="D14">
-        <v>0.02723069848783055</v>
+        <v>0.006233556035221355</v>
       </c>
       <c r="E14">
-        <v>0.04698662319864155</v>
+        <v>0.02580793828240191</v>
       </c>
       <c r="F14">
-        <v>3.95174303313587</v>
+        <v>2.397052484346219</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2.185319944305732</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05692602609256348</v>
+        <v>0.05555598933333572</v>
       </c>
       <c r="K14">
-        <v>0.9367708261776642</v>
+        <v>0.9289533348403438</v>
       </c>
       <c r="L14">
-        <v>0.2137564278774207</v>
+        <v>0.2210573540473035</v>
       </c>
       <c r="M14">
-        <v>0.8549012216306551</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.6607432043636621</v>
+      </c>
+      <c r="N14">
+        <v>1.193880575141797</v>
+      </c>
+      <c r="O14">
+        <v>1.735900439998758</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.007372546938484</v>
+        <v>3.899544568197314</v>
       </c>
       <c r="C15">
-        <v>1.024341724915928</v>
+        <v>0.4903929913625973</v>
       </c>
       <c r="D15">
-        <v>0.0271718392391449</v>
+        <v>0.006172522795720781</v>
       </c>
       <c r="E15">
-        <v>0.04657100324649122</v>
+        <v>0.02581729870138405</v>
       </c>
       <c r="F15">
-        <v>3.911001226588468</v>
+        <v>2.381937719459529</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2.165048900748261</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.0564919073031227</v>
+        <v>0.05570748119772517</v>
       </c>
       <c r="K15">
-        <v>0.9253057015956045</v>
+        <v>0.9184115525527545</v>
       </c>
       <c r="L15">
-        <v>0.2112315684664452</v>
+        <v>0.2191875301108439</v>
       </c>
       <c r="M15">
-        <v>0.8445209338977406</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.6537906052320324</v>
+      </c>
+      <c r="N15">
+        <v>1.199858766275916</v>
+      </c>
+      <c r="O15">
+        <v>1.7247990292569</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.797137387630471</v>
+        <v>3.65410082964479</v>
       </c>
       <c r="C16">
-        <v>0.9513387379051039</v>
+        <v>0.4576891683460076</v>
       </c>
       <c r="D16">
-        <v>0.02685520631744254</v>
+        <v>0.005830176631621775</v>
       </c>
       <c r="E16">
-        <v>0.04422241300169105</v>
+        <v>0.02587483077410258</v>
       </c>
       <c r="F16">
-        <v>3.680880637010944</v>
+        <v>2.297030600305334</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2.050706926151705</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05404748272410487</v>
+        <v>0.05658401602535079</v>
       </c>
       <c r="K16">
-        <v>0.8602478679510455</v>
+        <v>0.8584285920167929</v>
       </c>
       <c r="L16">
-        <v>0.1969309690767744</v>
+        <v>0.2085699883137551</v>
       </c>
       <c r="M16">
-        <v>0.785646054293629</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.6142563312786891</v>
+      </c>
+      <c r="N16">
+        <v>1.234826980949521</v>
+      </c>
+      <c r="O16">
+        <v>1.662487245014788</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.669809018871263</v>
+        <v>3.505074857601699</v>
       </c>
       <c r="C17">
-        <v>0.9072114161719185</v>
+        <v>0.4377903380038788</v>
       </c>
       <c r="D17">
-        <v>0.02667804970809939</v>
+        <v>0.005626228724786131</v>
       </c>
       <c r="E17">
-        <v>0.04280944866960468</v>
+        <v>0.0259135055703954</v>
       </c>
       <c r="F17">
-        <v>3.542503154703013</v>
+        <v>2.246397575972125</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1.982082898939211</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05258420198844682</v>
+        <v>0.05712924027888189</v>
       </c>
       <c r="K17">
-        <v>0.8208680391165757</v>
+        <v>0.8219888457761044</v>
       </c>
       <c r="L17">
-        <v>0.1882977466751967</v>
+        <v>0.202139420385997</v>
       </c>
       <c r="M17">
-        <v>0.7500331264182876</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.5902627669226632</v>
+      </c>
+      <c r="N17">
+        <v>1.25689323974462</v>
+      </c>
+      <c r="O17">
+        <v>1.625371334315176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.597126684769535</v>
+        <v>3.419889987030444</v>
       </c>
       <c r="C18">
-        <v>0.882051487993408</v>
+        <v>0.4264002044808706</v>
       </c>
       <c r="D18">
-        <v>0.0265819276482091</v>
+        <v>0.005510949848830826</v>
       </c>
       <c r="E18">
-        <v>0.04200630400042016</v>
+        <v>0.0259369582520188</v>
       </c>
       <c r="F18">
-        <v>3.463863867946714</v>
+        <v>2.217782445269606</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1.943131275158748</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05175500409444744</v>
+        <v>0.05744559703466656</v>
       </c>
       <c r="K18">
-        <v>0.7983964849980367</v>
+        <v>0.8011520925583966</v>
       </c>
       <c r="L18">
-        <v>0.1833795420914228</v>
+        <v>0.1984696088283755</v>
       </c>
       <c r="M18">
-        <v>0.7297200917441273</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.576551675591702</v>
+      </c>
+      <c r="N18">
+        <v>1.269803782622489</v>
+      </c>
+      <c r="O18">
+        <v>1.604410334288247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.572608202386959</v>
+        <v>3.391135644444091</v>
       </c>
       <c r="C19">
-        <v>0.8735688452738373</v>
+        <v>0.4225527084269345</v>
       </c>
       <c r="D19">
-        <v>0.0265503286834452</v>
+        <v>0.00547224803392421</v>
       </c>
       <c r="E19">
-        <v>0.04173595355814363</v>
+        <v>0.02594510329029642</v>
       </c>
       <c r="F19">
-        <v>3.437394648184295</v>
+        <v>2.208178577309909</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1.930028476762232</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05147630795980618</v>
+        <v>0.05755318394981579</v>
       </c>
       <c r="K19">
-        <v>0.7908172049144042</v>
+        <v>0.7941173222560423</v>
       </c>
       <c r="L19">
-        <v>0.1817221056616489</v>
+        <v>0.1972318874180772</v>
       </c>
       <c r="M19">
-        <v>0.7228703924031521</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.5719241397775647</v>
+      </c>
+      <c r="N19">
+        <v>1.274211962905227</v>
+      </c>
+      <c r="O19">
+        <v>1.597377867615876</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.683304947736701</v>
+        <v>3.520883162656958</v>
       </c>
       <c r="C20">
-        <v>0.9118855280279661</v>
+        <v>0.4399027834583933</v>
       </c>
       <c r="D20">
-        <v>0.0266962998369813</v>
+        <v>0.00564772514689249</v>
       </c>
       <c r="E20">
-        <v>0.04295885765818852</v>
+        <v>0.02590926280489914</v>
       </c>
       <c r="F20">
-        <v>3.557133536612241</v>
+        <v>2.251734416812155</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1.989333451183612</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05273866348053602</v>
+        <v>0.05707091482027504</v>
       </c>
       <c r="K20">
-        <v>0.8250412382220134</v>
+        <v>0.8258550491451473</v>
       </c>
       <c r="L20">
-        <v>0.1892117765650525</v>
+        <v>0.2028209410587323</v>
       </c>
       <c r="M20">
-        <v>0.7538062035560671</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.5928075421592354</v>
+      </c>
+      <c r="N20">
+        <v>1.254521465825583</v>
+      </c>
+      <c r="O20">
+        <v>1.629281864275484</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.062202940847328</v>
+        <v>3.96342273251804</v>
       </c>
       <c r="C21">
-        <v>1.043410838501245</v>
+        <v>0.4988914725754796</v>
       </c>
       <c r="D21">
-        <v>0.02725930869594251</v>
+        <v>0.006262962198634092</v>
       </c>
       <c r="E21">
-        <v>0.04718653679298512</v>
+        <v>0.02580351988904162</v>
       </c>
       <c r="F21">
-        <v>3.971342096779182</v>
+        <v>2.40433169232945</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2.195074266753892</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05713499929006893</v>
+        <v>0.05548349329765578</v>
       </c>
       <c r="K21">
-        <v>0.9422807036886809</v>
+        <v>0.9340163186896575</v>
       </c>
       <c r="L21">
-        <v>0.2149702987821058</v>
+        <v>0.2219557740283875</v>
       </c>
       <c r="M21">
-        <v>0.8598902327097093</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.6640828448583349</v>
+      </c>
+      <c r="N21">
+        <v>1.191026696566368</v>
+      </c>
+      <c r="O21">
+        <v>1.741247768133022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.315894355242619</v>
+        <v>4.258194501868672</v>
       </c>
       <c r="C22">
-        <v>1.131801428109554</v>
+        <v>0.5380473998382058</v>
       </c>
       <c r="D22">
-        <v>0.02769006098038318</v>
+        <v>0.0066876613800817</v>
       </c>
       <c r="E22">
-        <v>0.0500495369023497</v>
+        <v>0.02574593728381469</v>
       </c>
       <c r="F22">
-        <v>4.252200564909998</v>
+        <v>2.509177691866512</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>2.33505008232666</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0601390231568022</v>
+        <v>0.05447052866416513</v>
       </c>
       <c r="K22">
-        <v>1.020862584048857</v>
+        <v>1.005996444718122</v>
       </c>
       <c r="L22">
-        <v>0.232315261584418</v>
+        <v>0.2347539719536229</v>
       </c>
       <c r="M22">
-        <v>0.9310753809103076</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7115927211304509</v>
+      </c>
+      <c r="N22">
+        <v>1.15163416117538</v>
+      </c>
+      <c r="O22">
+        <v>1.818333023917049</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.179880576835444</v>
+        <v>4.100319602197999</v>
       </c>
       <c r="C23">
-        <v>1.084378805623601</v>
+        <v>0.517088131696255</v>
       </c>
       <c r="D23">
-        <v>0.02745380896176641</v>
+        <v>0.00645868331975219</v>
       </c>
       <c r="E23">
-        <v>0.04851157409997242</v>
+        <v>0.02577557500205585</v>
       </c>
       <c r="F23">
-        <v>4.10128452579653</v>
+        <v>2.452720797743169</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>2.259791242924706</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05852270661653947</v>
+        <v>0.05500892726853834</v>
       </c>
       <c r="K23">
-        <v>0.9787233309492791</v>
+        <v>0.967450900106229</v>
       </c>
       <c r="L23">
-        <v>0.2230066038638157</v>
+        <v>0.2278947562209339</v>
       </c>
       <c r="M23">
-        <v>0.8928954067718138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.6861441866160689</v>
+      </c>
+      <c r="N23">
+        <v>1.172457933900851</v>
+      </c>
+      <c r="O23">
+        <v>1.776809689505924</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.67720182914934</v>
+        <v>3.513734703767113</v>
       </c>
       <c r="C24">
-        <v>0.9097717145255615</v>
+        <v>0.4389475924239434</v>
       </c>
       <c r="D24">
-        <v>0.02668803123244956</v>
+        <v>0.005638000515713948</v>
       </c>
       <c r="E24">
-        <v>0.04289128139514453</v>
+        <v>0.02591117717342328</v>
       </c>
       <c r="F24">
-        <v>3.550516306187262</v>
+        <v>2.249320097258789</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1.986053924641922</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05266879408120495</v>
+        <v>0.05709727472643511</v>
       </c>
       <c r="K24">
-        <v>0.8231540141480735</v>
+        <v>0.8241067889518092</v>
       </c>
       <c r="L24">
-        <v>0.1887984039500168</v>
+        <v>0.2025127411944965</v>
       </c>
       <c r="M24">
-        <v>0.7520998964536645</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.5916567917538629</v>
+      </c>
+      <c r="N24">
+        <v>1.255593047683618</v>
+      </c>
+      <c r="O24">
+        <v>1.627512743002995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.155666076693819</v>
+        <v>2.900924809402113</v>
       </c>
       <c r="C25">
-        <v>0.7296820041917442</v>
+        <v>0.356717153690056</v>
       </c>
       <c r="D25">
-        <v>0.02607820572308484</v>
+        <v>0.004828319669296199</v>
       </c>
       <c r="E25">
-        <v>0.03718773605190329</v>
+        <v>0.02610330741264333</v>
       </c>
       <c r="F25">
-        <v>2.992098362484711</v>
+        <v>2.049051782246181</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1.710250427205324</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04682153910011522</v>
+        <v>0.05945538111366577</v>
       </c>
       <c r="K25">
-        <v>0.662023020627629</v>
+        <v>0.6740744178187938</v>
       </c>
       <c r="L25">
-        <v>0.1536737502644741</v>
+        <v>0.176221778792403</v>
       </c>
       <c r="M25">
-        <v>0.6066085917412281</v>
+        <v>0.4930923725158181</v>
+      </c>
+      <c r="N25">
+        <v>1.353553334409156</v>
+      </c>
+      <c r="O25">
+        <v>1.48105692614088</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_42/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.462928978262767</v>
+        <v>3.803943779318331</v>
       </c>
       <c r="C2">
-        <v>0.2974076604836</v>
+        <v>1.016625477848436</v>
       </c>
       <c r="D2">
-        <v>0.004276918484881875</v>
+        <v>0.005876172592285123</v>
       </c>
       <c r="E2">
-        <v>0.02628085204278707</v>
+        <v>0.02735662721789467</v>
       </c>
       <c r="F2">
-        <v>1.915248207029606</v>
+        <v>2.907313971534933</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06128299220163225</v>
+        <v>0.07562625766363951</v>
       </c>
       <c r="K2">
-        <v>0.5665951116971826</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1576299129040919</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4227762780638358</v>
+        <v>0.875790503499644</v>
       </c>
       <c r="N2">
-        <v>1.432089463835865</v>
+        <v>1.297862128135222</v>
       </c>
       <c r="O2">
-        <v>1.383592324230364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.172621982859312</v>
+        <v>3.297432787552566</v>
       </c>
       <c r="C3">
-        <v>0.2577526354286306</v>
+        <v>0.8772342061462268</v>
       </c>
       <c r="D3">
-        <v>0.003922764738296891</v>
+        <v>0.005184802141364742</v>
       </c>
       <c r="E3">
-        <v>0.02642229421245657</v>
+        <v>0.02651729380011503</v>
       </c>
       <c r="F3">
-        <v>1.831857324422288</v>
+        <v>2.657467000830877</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.062578852037938</v>
+        <v>0.07242549127007081</v>
       </c>
       <c r="K3">
-        <v>0.4952012911485397</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.145433546358035</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.376254071678197</v>
+        <v>0.7641144430517599</v>
       </c>
       <c r="N3">
-        <v>1.488998781021479</v>
+        <v>1.327676152261702</v>
       </c>
       <c r="O3">
-        <v>1.323056991518385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.997084441336312</v>
+        <v>2.992951398276887</v>
       </c>
       <c r="C4">
-        <v>0.2336022658866455</v>
+        <v>0.793429724413329</v>
       </c>
       <c r="D4">
-        <v>0.003712574647797062</v>
+        <v>0.004784333528990992</v>
       </c>
       <c r="E4">
-        <v>0.0265191650611829</v>
+        <v>0.02603285575727021</v>
       </c>
       <c r="F4">
-        <v>1.783886078377293</v>
+        <v>2.510710851373744</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0634028466290899</v>
+        <v>0.07059587958908509</v>
       </c>
       <c r="K4">
-        <v>0.4519547552787913</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1381219586676181</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3481658462522006</v>
+        <v>0.6970748742721469</v>
       </c>
       <c r="N4">
-        <v>1.525665806565989</v>
+        <v>1.348138114159298</v>
       </c>
       <c r="O4">
-        <v>1.288327373078531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.926164701307357</v>
+        <v>2.870293100875415</v>
       </c>
       <c r="C5">
-        <v>0.2238013595959245</v>
+        <v>0.7596637097383052</v>
       </c>
       <c r="D5">
-        <v>0.003628430686407391</v>
+        <v>0.004626113957847622</v>
       </c>
       <c r="E5">
-        <v>0.02656110925414978</v>
+        <v>0.02584279462234651</v>
       </c>
       <c r="F5">
-        <v>1.765100001919578</v>
+        <v>2.452408835262602</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06374576336392868</v>
+        <v>0.06988177827029318</v>
       </c>
       <c r="K5">
-        <v>0.4344629402918869</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1351839616265877</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3368284509656903</v>
+        <v>0.6700919315220872</v>
       </c>
       <c r="N5">
-        <v>1.541028568359927</v>
+        <v>1.35698428477005</v>
       </c>
       <c r="O5">
-        <v>1.274749516534065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.914423648470802</v>
+        <v>2.850005562299543</v>
       </c>
       <c r="C6">
-        <v>0.2221761194725786</v>
+        <v>0.7540784090043928</v>
       </c>
       <c r="D6">
-        <v>0.00361454121116811</v>
+        <v>0.004600113269081163</v>
       </c>
       <c r="E6">
-        <v>0.02656822171825524</v>
+        <v>0.02581166751242758</v>
       </c>
       <c r="F6">
-        <v>1.762025251465772</v>
+        <v>2.442813893824393</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06380313542805727</v>
+        <v>0.06976503116756305</v>
       </c>
       <c r="K6">
-        <v>0.4315659119498676</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1346985346616094</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3349521462649605</v>
+        <v>0.6656304098926782</v>
       </c>
       <c r="N6">
-        <v>1.543604586996416</v>
+        <v>1.358482908613482</v>
       </c>
       <c r="O6">
-        <v>1.27252855627205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.996125597452533</v>
+        <v>2.991291708858512</v>
       </c>
       <c r="C7">
-        <v>0.2334699349006399</v>
+        <v>0.7929728644024294</v>
       </c>
       <c r="D7">
-        <v>0.003711434133117919</v>
+        <v>0.004782180904951083</v>
       </c>
       <c r="E7">
-        <v>0.02651972080546816</v>
+        <v>0.02603026329074343</v>
       </c>
       <c r="F7">
-        <v>1.783629698569911</v>
+        <v>2.509918700425303</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06340744243505769</v>
+        <v>0.0705861248123405</v>
       </c>
       <c r="K7">
-        <v>0.451718343417177</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1380821714357552</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.348012519784298</v>
+        <v>0.6967096722914548</v>
       </c>
       <c r="N7">
-        <v>1.525871307434166</v>
+        <v>1.348255403873878</v>
       </c>
       <c r="O7">
-        <v>1.288141979416828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.362225280172368</v>
+        <v>3.6278073811024</v>
       </c>
       <c r="C8">
-        <v>0.2836877521351369</v>
+        <v>0.9681533913479257</v>
       </c>
       <c r="D8">
-        <v>0.004153098942365041</v>
+        <v>0.005632114633184138</v>
       </c>
       <c r="E8">
-        <v>0.02632750752440338</v>
+        <v>0.02706054062941377</v>
       </c>
       <c r="F8">
-        <v>1.885793303632497</v>
+        <v>2.819678670834151</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06172392966207552</v>
+        <v>0.0744928082017644</v>
       </c>
       <c r="K8">
-        <v>0.5418456945396741</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1533860010598076</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4066295959552662</v>
+        <v>0.836936341382895</v>
       </c>
       <c r="N8">
-        <v>1.451345791885281</v>
+        <v>1.307672742148341</v>
       </c>
       <c r="O8">
-        <v>1.362189356336259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.105053452471452</v>
+        <v>4.938875442929145</v>
       </c>
       <c r="C9">
-        <v>0.3841913725792949</v>
+        <v>1.329051405412883</v>
       </c>
       <c r="D9">
-        <v>0.005092877228862314</v>
+        <v>0.007545488510779741</v>
       </c>
       <c r="E9">
-        <v>0.02603277910154844</v>
+        <v>0.02934777656880172</v>
       </c>
       <c r="F9">
-        <v>2.114216436487766</v>
+        <v>3.488539433612601</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05864689884631114</v>
+        <v>0.08336398801258582</v>
       </c>
       <c r="K9">
-        <v>0.7240890176624717</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1849483345385536</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5259040813123264</v>
+        <v>1.126530331819865</v>
       </c>
       <c r="N9">
-        <v>1.319514976942529</v>
+        <v>1.246944032816302</v>
       </c>
       <c r="O9">
-        <v>1.52864405469947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.671180320128997</v>
+        <v>5.958265404148449</v>
       </c>
       <c r="C10">
-        <v>0.4599675982508984</v>
+        <v>1.609974860051068</v>
       </c>
       <c r="D10">
-        <v>0.005853737587304231</v>
+        <v>0.009194113088051736</v>
       </c>
       <c r="E10">
-        <v>0.02587058383301399</v>
+        <v>0.03122537695397654</v>
       </c>
       <c r="F10">
-        <v>2.30287889012213</v>
+        <v>4.031222895112506</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0565221757076011</v>
+        <v>0.09083242576378581</v>
       </c>
       <c r="K10">
-        <v>0.8626038570476595</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2093077885951686</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6170066995174821</v>
+        <v>1.352153032069381</v>
       </c>
       <c r="N10">
-        <v>1.2323392011346</v>
+        <v>1.216613010729247</v>
       </c>
       <c r="O10">
-        <v>1.666776374130166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.934436969212072</v>
+        <v>6.438954607682888</v>
       </c>
       <c r="C11">
-        <v>0.495035770275507</v>
+        <v>1.742587621060181</v>
       </c>
       <c r="D11">
-        <v>0.00622185435281164</v>
+        <v>0.01002270881601852</v>
       </c>
       <c r="E11">
-        <v>0.02580971295523948</v>
+        <v>0.0321315176653183</v>
       </c>
       <c r="F11">
-        <v>2.39415525936721</v>
+        <v>4.292925071123165</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05558492674142634</v>
+        <v>0.0944930350746418</v>
       </c>
       <c r="K11">
-        <v>0.9269356994239075</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2206993964389028</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6594124165876565</v>
+        <v>1.458639320281804</v>
       </c>
       <c r="N11">
-        <v>1.195020987850782</v>
+        <v>1.206666036578014</v>
       </c>
       <c r="O11">
-        <v>1.733772298269045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.03506721371798</v>
+        <v>6.623890113903599</v>
       </c>
       <c r="C12">
-        <v>0.5084173398351481</v>
+        <v>1.79363622962461</v>
       </c>
       <c r="D12">
-        <v>0.006365067036822047</v>
+        <v>0.01035046493367275</v>
       </c>
       <c r="E12">
-        <v>0.02578862923093928</v>
+        <v>0.03248303360440907</v>
       </c>
       <c r="F12">
-        <v>2.429589227364644</v>
+        <v>4.394525012030044</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0552342160908772</v>
+        <v>0.09592266689529794</v>
       </c>
       <c r="K12">
-        <v>0.9515154955770129</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.22506285986168</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6756278862786189</v>
+        <v>1.499620930823511</v>
       </c>
       <c r="N12">
-        <v>1.181248405642137</v>
+        <v>1.203528404296193</v>
       </c>
       <c r="O12">
-        <v>1.759806677942166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.013350848451068</v>
+        <v>6.583923269123432</v>
       </c>
       <c r="C13">
-        <v>0.5055305665024434</v>
+        <v>1.782602592450701</v>
       </c>
       <c r="D13">
-        <v>0.006334042605216972</v>
+        <v>0.01027920651236158</v>
       </c>
       <c r="E13">
-        <v>0.02579308059743246</v>
+        <v>0.03240693976675324</v>
       </c>
       <c r="F13">
-        <v>2.42191775734203</v>
+        <v>4.372526030636976</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05530956100750739</v>
+        <v>0.09561273950021842</v>
       </c>
       <c r="K13">
-        <v>0.9462115780726634</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2241208127596366</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6721282747926409</v>
+        <v>1.490763724366616</v>
       </c>
       <c r="N13">
-        <v>1.18419822225966</v>
+        <v>1.204174836868546</v>
       </c>
       <c r="O13">
-        <v>1.754169023346904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.942696309962912</v>
+        <v>6.454108102230521</v>
       </c>
       <c r="C14">
-        <v>0.4961345368606942</v>
+        <v>1.746769893162195</v>
       </c>
       <c r="D14">
-        <v>0.006233556035221355</v>
+        <v>0.0100493760237832</v>
       </c>
       <c r="E14">
-        <v>0.02580793828240191</v>
+        <v>0.03216026347420886</v>
       </c>
       <c r="F14">
-        <v>2.397052484346219</v>
+        <v>4.301231366054026</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05555598933333572</v>
+        <v>0.09460974595915417</v>
       </c>
       <c r="K14">
-        <v>0.9289533348403438</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2210573540473035</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6607432043636621</v>
+        <v>1.461997067572995</v>
       </c>
       <c r="N14">
-        <v>1.193880575141797</v>
+        <v>1.206394818002607</v>
       </c>
       <c r="O14">
-        <v>1.735900439998758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.899544568197314</v>
+        <v>6.374986621177129</v>
       </c>
       <c r="C15">
-        <v>0.4903929913625973</v>
+        <v>1.724934040808307</v>
       </c>
       <c r="D15">
-        <v>0.006172522795720781</v>
+        <v>0.00991050780432623</v>
       </c>
       <c r="E15">
-        <v>0.02581729870138405</v>
+        <v>0.03201028761614211</v>
       </c>
       <c r="F15">
-        <v>2.381937719459529</v>
+        <v>4.257898645011579</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05570748119772517</v>
+        <v>0.09400122152351287</v>
       </c>
       <c r="K15">
-        <v>0.9184115525527545</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2191875301108439</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6537906052320324</v>
+        <v>1.4444656666425</v>
       </c>
       <c r="N15">
-        <v>1.199858766275916</v>
+        <v>1.207838992122774</v>
       </c>
       <c r="O15">
-        <v>1.7247990292569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.65410082964479</v>
+        <v>5.927231054148876</v>
       </c>
       <c r="C16">
-        <v>0.4576891683460076</v>
+        <v>1.601416575425446</v>
       </c>
       <c r="D16">
-        <v>0.005830176631621775</v>
+        <v>0.009141762109008411</v>
       </c>
       <c r="E16">
-        <v>0.02587483077410258</v>
+        <v>0.03116727900865079</v>
       </c>
       <c r="F16">
-        <v>2.297030600305334</v>
+        <v>4.014448498561677</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05658401602535079</v>
+        <v>0.09059895078281244</v>
       </c>
       <c r="K16">
-        <v>0.8584285920167929</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2085699883137551</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6142563312786891</v>
+        <v>1.34527988485371</v>
       </c>
       <c r="N16">
-        <v>1.234826980949521</v>
+        <v>1.217346721159672</v>
       </c>
       <c r="O16">
-        <v>1.662487245014788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.505074857601699</v>
+        <v>5.657203769490707</v>
       </c>
       <c r="C17">
-        <v>0.4377903380038788</v>
+        <v>1.526968330811656</v>
       </c>
       <c r="D17">
-        <v>0.005626228724786131</v>
+        <v>0.00869205116687688</v>
       </c>
       <c r="E17">
-        <v>0.0259135055703954</v>
+        <v>0.03066404041397242</v>
       </c>
       <c r="F17">
-        <v>2.246397575972125</v>
+        <v>3.869141476944975</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05712924027888189</v>
+        <v>0.08858288952323079</v>
       </c>
       <c r="K17">
-        <v>0.8219888457761044</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.202139420385997</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5902627669226632</v>
+        <v>1.285487549257624</v>
       </c>
       <c r="N17">
-        <v>1.25689323974462</v>
+        <v>1.224215560310796</v>
       </c>
       <c r="O17">
-        <v>1.625371334315176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.419889987030444</v>
+        <v>5.503455817590407</v>
       </c>
       <c r="C18">
-        <v>0.4264002044808706</v>
+        <v>1.484591822355526</v>
       </c>
       <c r="D18">
-        <v>0.005510949848830826</v>
+        <v>0.008440602991281132</v>
       </c>
       <c r="E18">
-        <v>0.0259369582520188</v>
+        <v>0.03037942497193313</v>
       </c>
       <c r="F18">
-        <v>2.217782445269606</v>
+        <v>3.786935819563666</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05744559703466656</v>
+        <v>0.08744769462218471</v>
       </c>
       <c r="K18">
-        <v>0.8011520925583966</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1984696088283755</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.576551675591702</v>
+        <v>1.251451793957344</v>
       </c>
       <c r="N18">
-        <v>1.269803782622489</v>
+        <v>1.228523623882253</v>
       </c>
       <c r="O18">
-        <v>1.604410334288247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.391135644444091</v>
+        <v>5.451654994586818</v>
       </c>
       <c r="C19">
-        <v>0.4225527084269345</v>
+        <v>1.470316297560544</v>
       </c>
       <c r="D19">
-        <v>0.00547224803392421</v>
+        <v>0.008356632351206095</v>
       </c>
       <c r="E19">
-        <v>0.02594510329029642</v>
+        <v>0.03028386408601413</v>
       </c>
       <c r="F19">
-        <v>2.208178577309909</v>
+        <v>3.759327652280319</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05755318394981579</v>
+        <v>0.08706736951917549</v>
       </c>
       <c r="K19">
-        <v>0.7941173222560423</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1972318874180772</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5719241397775647</v>
+        <v>1.239985971394518</v>
       </c>
       <c r="N19">
-        <v>1.274211962905227</v>
+        <v>1.230041523006506</v>
       </c>
       <c r="O19">
-        <v>1.597377867615876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.520883162656958</v>
+        <v>5.685783537368366</v>
       </c>
       <c r="C20">
-        <v>0.4399027834583933</v>
+        <v>1.534846576138705</v>
       </c>
       <c r="D20">
-        <v>0.00564772514689249</v>
+        <v>0.008739159279675945</v>
       </c>
       <c r="E20">
-        <v>0.02590926280489914</v>
+        <v>0.03071710462356236</v>
       </c>
       <c r="F20">
-        <v>2.251734416812155</v>
+        <v>3.88446528563432</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05707091482027504</v>
+        <v>0.08879494061110194</v>
       </c>
       <c r="K20">
-        <v>0.8258550491451473</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2028209410587323</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5928075421592354</v>
+        <v>1.291815080332441</v>
       </c>
       <c r="N20">
-        <v>1.254521465825583</v>
+        <v>1.223446875370144</v>
       </c>
       <c r="O20">
-        <v>1.629281864275484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.96342273251804</v>
+        <v>6.4921548945631</v>
       </c>
       <c r="C21">
-        <v>0.4988914725754796</v>
+        <v>1.757271057321873</v>
       </c>
       <c r="D21">
-        <v>0.006262962198634092</v>
+        <v>0.01011647931692394</v>
       </c>
       <c r="E21">
-        <v>0.02580351988904162</v>
+        <v>0.03223248295795678</v>
       </c>
       <c r="F21">
-        <v>2.40433169232945</v>
+        <v>4.32210130087401</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05548349329765578</v>
+        <v>0.09490312156197689</v>
       </c>
       <c r="K21">
-        <v>0.9340163186896575</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2219557740283875</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6640828448583349</v>
+        <v>1.470427773098052</v>
       </c>
       <c r="N21">
-        <v>1.191026696566368</v>
+        <v>1.205725020276461</v>
       </c>
       <c r="O21">
-        <v>1.741247768133022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.258194501868672</v>
+        <v>7.036396683711189</v>
       </c>
       <c r="C22">
-        <v>0.5380473998382058</v>
+        <v>1.907563788886591</v>
       </c>
       <c r="D22">
-        <v>0.0066876613800817</v>
+        <v>0.01109979702556707</v>
       </c>
       <c r="E22">
-        <v>0.02574593728381469</v>
+        <v>0.03327224251906102</v>
       </c>
       <c r="F22">
-        <v>2.509177691866512</v>
+        <v>4.622903215849192</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05447052866416513</v>
+        <v>0.09915163724404863</v>
       </c>
       <c r="K22">
-        <v>1.005996444718122</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2347539719536229</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7115927211304509</v>
+        <v>1.591055388854983</v>
       </c>
       <c r="N22">
-        <v>1.15163416117538</v>
+        <v>1.197853981453392</v>
       </c>
       <c r="O22">
-        <v>1.818333023917049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.100319602197999</v>
+        <v>6.744172068982266</v>
       </c>
       <c r="C23">
-        <v>0.517088131696255</v>
+        <v>1.8268472020643</v>
       </c>
       <c r="D23">
-        <v>0.00645868331975219</v>
+        <v>0.01056634500209697</v>
       </c>
       <c r="E23">
-        <v>0.02577557500205585</v>
+        <v>0.03271244937140416</v>
       </c>
       <c r="F23">
-        <v>2.452720797743169</v>
+        <v>4.46086990875375</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05500892726853834</v>
+        <v>0.09685856806205351</v>
       </c>
       <c r="K23">
-        <v>0.967450900106229</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2278947562209339</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6861441866160689</v>
+        <v>1.526278923855372</v>
       </c>
       <c r="N23">
-        <v>1.172457933900851</v>
+        <v>1.201687032467277</v>
       </c>
       <c r="O23">
-        <v>1.776809689505924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.513734703767113</v>
+        <v>5.67285800425816</v>
       </c>
       <c r="C24">
-        <v>0.4389475924239434</v>
+        <v>1.531283508445824</v>
       </c>
       <c r="D24">
-        <v>0.005638000515713948</v>
+        <v>0.008717839792201865</v>
       </c>
       <c r="E24">
-        <v>0.02591117717342328</v>
+        <v>0.03069309971112943</v>
       </c>
       <c r="F24">
-        <v>2.249320097258789</v>
+        <v>3.877533265714533</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05709727472643511</v>
+        <v>0.08869899838866502</v>
       </c>
       <c r="K24">
-        <v>0.8241067889518092</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2025127411944965</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5916567917538629</v>
+        <v>1.288953353216215</v>
       </c>
       <c r="N24">
-        <v>1.255593047683618</v>
+        <v>1.223793284929968</v>
       </c>
       <c r="O24">
-        <v>1.627512743002995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.900924809402113</v>
+        <v>4.575770145450747</v>
       </c>
       <c r="C25">
-        <v>0.356717153690056</v>
+        <v>1.229067160562181</v>
       </c>
       <c r="D25">
-        <v>0.004828319669296199</v>
+        <v>0.006992834538645631</v>
       </c>
       <c r="E25">
-        <v>0.02610330741264333</v>
+        <v>0.02869716301624159</v>
       </c>
       <c r="F25">
-        <v>2.049051782246181</v>
+        <v>3.299703695764265</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05945538111366577</v>
+        <v>0.0808142382139323</v>
       </c>
       <c r="K25">
-        <v>0.6740744178187938</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.176221778792403</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4930923725158181</v>
+        <v>1.04624722871209</v>
       </c>
       <c r="N25">
-        <v>1.353553334409156</v>
+        <v>1.2610893768003</v>
       </c>
       <c r="O25">
-        <v>1.48105692614088</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_42/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.803943779318331</v>
+        <v>2.157254401178704</v>
       </c>
       <c r="C2">
-        <v>1.016625477848436</v>
+        <v>0.4977145929668723</v>
       </c>
       <c r="D2">
-        <v>0.005876172592285123</v>
+        <v>0.03186391388148557</v>
       </c>
       <c r="E2">
-        <v>0.02735662721789467</v>
+        <v>0.07750110998551385</v>
       </c>
       <c r="F2">
-        <v>2.907313971534933</v>
+        <v>3.371396017997341</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07562625766363951</v>
+        <v>0.148007748228558</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.875790503499644</v>
+        <v>0.6361323976315703</v>
       </c>
       <c r="N2">
-        <v>1.297862128135222</v>
+        <v>2.230108892598309</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.297432787552566</v>
+        <v>2.039924398499068</v>
       </c>
       <c r="C3">
-        <v>0.8772342061462268</v>
+        <v>0.4649510196443885</v>
       </c>
       <c r="D3">
-        <v>0.005184802141364742</v>
+        <v>0.03163220842849057</v>
       </c>
       <c r="E3">
-        <v>0.02651729380011503</v>
+        <v>0.0776835693080411</v>
       </c>
       <c r="F3">
-        <v>2.657467000830877</v>
+        <v>3.329408434567313</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07242549127007081</v>
+        <v>0.1480519533643339</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7641144430517599</v>
+        <v>0.6121101459420117</v>
       </c>
       <c r="N3">
-        <v>1.327676152261702</v>
+        <v>2.242756627550889</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.992951398276887</v>
+        <v>1.969273045247348</v>
       </c>
       <c r="C4">
-        <v>0.793429724413329</v>
+        <v>0.4451547636293753</v>
       </c>
       <c r="D4">
-        <v>0.004784333528990992</v>
+        <v>0.03148807221456096</v>
       </c>
       <c r="E4">
-        <v>0.02603285575727021</v>
+        <v>0.07781798545161678</v>
       </c>
       <c r="F4">
-        <v>2.510710851373744</v>
+        <v>3.305527948551259</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07059587958908509</v>
+        <v>0.1481383786385919</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6970748742721469</v>
+        <v>0.5977641422962847</v>
       </c>
       <c r="N4">
-        <v>1.348138114159298</v>
+        <v>2.25121920928099</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.870293100875415</v>
+        <v>1.940828943214512</v>
       </c>
       <c r="C5">
-        <v>0.7596637097383052</v>
+        <v>0.4371674501127529</v>
       </c>
       <c r="D5">
-        <v>0.004626113957847622</v>
+        <v>0.03142884699625004</v>
       </c>
       <c r="E5">
-        <v>0.02584279462234651</v>
+        <v>0.07787840105262323</v>
       </c>
       <c r="F5">
-        <v>2.452408835262602</v>
+        <v>3.296271856290588</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06988177827029318</v>
+        <v>0.148188485101592</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6700919315220872</v>
+        <v>0.592019056531079</v>
       </c>
       <c r="N5">
-        <v>1.35698428477005</v>
+        <v>2.254842311893121</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.850005562299543</v>
+        <v>1.936126699630904</v>
       </c>
       <c r="C6">
-        <v>0.7540784090043928</v>
+        <v>0.4358459600359481</v>
       </c>
       <c r="D6">
-        <v>0.004600113269081163</v>
+        <v>0.03141898264398169</v>
       </c>
       <c r="E6">
-        <v>0.02581166751242758</v>
+        <v>0.07788877398076011</v>
       </c>
       <c r="F6">
-        <v>2.442813893824393</v>
+        <v>3.294763533110341</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06976503116756305</v>
+        <v>0.148197703844108</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6656304098926782</v>
+        <v>0.5910711768302335</v>
       </c>
       <c r="N6">
-        <v>1.358482908613482</v>
+        <v>2.255454446561281</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.991291708858512</v>
+        <v>1.968888036908197</v>
       </c>
       <c r="C7">
-        <v>0.7929728644024294</v>
+        <v>0.4450467218090921</v>
       </c>
       <c r="D7">
-        <v>0.004782180904951083</v>
+        <v>0.03148727548541785</v>
       </c>
       <c r="E7">
-        <v>0.02603026329074343</v>
+        <v>0.07781877738677601</v>
       </c>
       <c r="F7">
-        <v>2.509918700425303</v>
+        <v>3.305401195893225</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0705861248123405</v>
+        <v>0.1481389941381721</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6967096722914548</v>
+        <v>0.5976862536555387</v>
       </c>
       <c r="N7">
-        <v>1.348255403873878</v>
+        <v>2.251267365936911</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.6278073811024</v>
+        <v>2.116508977308001</v>
       </c>
       <c r="C8">
-        <v>0.9681533913479257</v>
+        <v>0.4863506388049359</v>
       </c>
       <c r="D8">
-        <v>0.005632114633184138</v>
+        <v>0.03178439813018219</v>
       </c>
       <c r="E8">
-        <v>0.02706054062941377</v>
+        <v>0.07755938231198023</v>
       </c>
       <c r="F8">
-        <v>2.819678670834151</v>
+        <v>3.356522875535745</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0744928082017644</v>
+        <v>0.1480106735607123</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.836936341382895</v>
+        <v>0.6277654121183645</v>
       </c>
       <c r="N8">
-        <v>1.307672742148341</v>
+        <v>2.234324789872318</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.938875442929145</v>
+        <v>2.417154895888416</v>
       </c>
       <c r="C9">
-        <v>1.329051405412883</v>
+        <v>0.569934443296404</v>
       </c>
       <c r="D9">
-        <v>0.007545488510779741</v>
+        <v>0.03235310807379044</v>
       </c>
       <c r="E9">
-        <v>0.02934777656880172</v>
+        <v>0.07722788679950199</v>
       </c>
       <c r="F9">
-        <v>3.488539433612601</v>
+        <v>3.471966305026484</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08336398801258582</v>
+        <v>0.1482304800106391</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.126530331819865</v>
+        <v>0.6899810506752857</v>
       </c>
       <c r="N9">
-        <v>1.246944032816302</v>
+        <v>2.206660632456348</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.958265404148449</v>
+        <v>2.645058048405133</v>
       </c>
       <c r="C10">
-        <v>1.609974860051068</v>
+        <v>0.6329864294455092</v>
       </c>
       <c r="D10">
-        <v>0.009194113088051736</v>
+        <v>0.03276369182069594</v>
       </c>
       <c r="E10">
-        <v>0.03122537695397654</v>
+        <v>0.07709181703288692</v>
       </c>
       <c r="F10">
-        <v>4.031222895112506</v>
+        <v>3.566223261354537</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09083242576378581</v>
+        <v>0.1486810823754752</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.352153032069381</v>
+        <v>0.7377037233239747</v>
       </c>
       <c r="N10">
-        <v>1.216613010729247</v>
+        <v>2.189768822909571</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.438954607682888</v>
+        <v>2.7503098524341</v>
       </c>
       <c r="C11">
-        <v>1.742587621060181</v>
+        <v>0.6620420758732166</v>
       </c>
       <c r="D11">
-        <v>0.01002270881601852</v>
+        <v>0.03294918205976138</v>
       </c>
       <c r="E11">
-        <v>0.0321315176653183</v>
+        <v>0.07705314888685599</v>
       </c>
       <c r="F11">
-        <v>4.292925071123165</v>
+        <v>3.611193115692458</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0944930350746418</v>
+        <v>0.148949248341296</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.458639320281804</v>
+        <v>0.7598610339173035</v>
       </c>
       <c r="N11">
-        <v>1.206666036578014</v>
+        <v>2.182839306108662</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.623890113903599</v>
+        <v>2.790396332125795</v>
       </c>
       <c r="C12">
-        <v>1.79363622962461</v>
+        <v>0.6730994220945377</v>
       </c>
       <c r="D12">
-        <v>0.01035046493367275</v>
+        <v>0.03301926012254697</v>
       </c>
       <c r="E12">
-        <v>0.03248303360440907</v>
+        <v>0.07704183779621232</v>
       </c>
       <c r="F12">
-        <v>4.394525012030044</v>
+        <v>3.628525898786904</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09592266689529794</v>
+        <v>0.1490599119669724</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.499620930823511</v>
+        <v>0.7683165694784577</v>
       </c>
       <c r="N12">
-        <v>1.203528404296193</v>
+        <v>2.18032460823342</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.583923269123432</v>
+        <v>2.781752716864162</v>
       </c>
       <c r="C13">
-        <v>1.782602592450701</v>
+        <v>0.6707155805866023</v>
       </c>
       <c r="D13">
-        <v>0.01027920651236158</v>
+        <v>0.03300417445610471</v>
       </c>
       <c r="E13">
-        <v>0.03240693976675324</v>
+        <v>0.07704412580211439</v>
       </c>
       <c r="F13">
-        <v>4.372526030636976</v>
+        <v>3.624779421606206</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09561273950021842</v>
+        <v>0.1490356727092887</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.490763724366616</v>
+        <v>0.7664926158031307</v>
       </c>
       <c r="N13">
-        <v>1.204174836868546</v>
+        <v>2.180861316061169</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.454108102230521</v>
+        <v>2.753603165805316</v>
       </c>
       <c r="C14">
-        <v>1.746769893162195</v>
+        <v>0.6629506704393293</v>
       </c>
       <c r="D14">
-        <v>0.0100493760237832</v>
+        <v>0.03295495056466713</v>
       </c>
       <c r="E14">
-        <v>0.03216026347420886</v>
+        <v>0.07705215159424661</v>
       </c>
       <c r="F14">
-        <v>4.301231366054026</v>
+        <v>3.612612991494757</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.09460974595915417</v>
+        <v>0.1489581698558951</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.461997067572995</v>
+        <v>0.7605553687665321</v>
       </c>
       <c r="N14">
-        <v>1.206394818002607</v>
+        <v>2.182630223804338</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.374986621177129</v>
+        <v>2.736390785550043</v>
       </c>
       <c r="C15">
-        <v>1.724934040808307</v>
+        <v>0.658201578878618</v>
       </c>
       <c r="D15">
-        <v>0.00991050780432623</v>
+        <v>0.03292477893173995</v>
       </c>
       <c r="E15">
-        <v>0.03201028761614211</v>
+        <v>0.07705750125069954</v>
       </c>
       <c r="F15">
-        <v>4.257898645011579</v>
+        <v>3.605200335126085</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.09400122152351287</v>
+        <v>0.1489118850425939</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.4444656666425</v>
+        <v>0.7569271226253846</v>
       </c>
       <c r="N15">
-        <v>1.207838992122774</v>
+        <v>2.183727997933005</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.927231054148876</v>
+        <v>2.638211599187287</v>
       </c>
       <c r="C16">
-        <v>1.601416575425446</v>
+        <v>0.6310951623412961</v>
       </c>
       <c r="D16">
-        <v>0.009141762109008411</v>
+        <v>0.03275154557522875</v>
       </c>
       <c r="E16">
-        <v>0.03116727900865079</v>
+        <v>0.07709481078580183</v>
       </c>
       <c r="F16">
-        <v>4.014448498561677</v>
+        <v>3.563326713419087</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.09059895078281244</v>
+        <v>0.148664831003444</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.34527988485371</v>
+        <v>0.7362647588057598</v>
       </c>
       <c r="N16">
-        <v>1.217346721159672</v>
+        <v>2.190236940317405</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.657203769490707</v>
+        <v>2.578388043800032</v>
       </c>
       <c r="C17">
-        <v>1.526968330811656</v>
+        <v>0.6145624664045499</v>
       </c>
       <c r="D17">
-        <v>0.00869205116687688</v>
+        <v>0.03264495850221927</v>
       </c>
       <c r="E17">
-        <v>0.03066404041397242</v>
+        <v>0.07712364253578308</v>
       </c>
       <c r="F17">
-        <v>3.869141476944975</v>
+        <v>3.538176407387084</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08858288952323079</v>
+        <v>0.1485294748784938</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.285487549257624</v>
+        <v>0.7237042523715758</v>
       </c>
       <c r="N17">
-        <v>1.224215560310796</v>
+        <v>2.194423844988449</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.503455817590407</v>
+        <v>2.54412741306561</v>
       </c>
       <c r="C18">
-        <v>1.484591822355526</v>
+        <v>0.6050883445625459</v>
       </c>
       <c r="D18">
-        <v>0.008440602991281132</v>
+        <v>0.03258353001874426</v>
       </c>
       <c r="E18">
-        <v>0.03037942497193313</v>
+        <v>0.07714241289024493</v>
       </c>
       <c r="F18">
-        <v>3.786935819563666</v>
+        <v>3.523907340955191</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08744769462218471</v>
+        <v>0.1484575670595802</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.251451793957344</v>
+        <v>0.7165219138567949</v>
       </c>
       <c r="N18">
-        <v>1.228523623882253</v>
+        <v>2.19690302216965</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.451654994586818</v>
+        <v>2.532552730047769</v>
       </c>
       <c r="C19">
-        <v>1.470316297560544</v>
+        <v>0.6018865599619403</v>
       </c>
       <c r="D19">
-        <v>0.008356632351206095</v>
+        <v>0.03256270970499209</v>
       </c>
       <c r="E19">
-        <v>0.03028386408601413</v>
+        <v>0.07714914411893581</v>
       </c>
       <c r="F19">
-        <v>3.759327652280319</v>
+        <v>3.519109781418734</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08706736951917549</v>
+        <v>0.1484342405713193</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.239985971394518</v>
+        <v>0.7140973152155539</v>
       </c>
       <c r="N19">
-        <v>1.230041523006506</v>
+        <v>2.197754594449364</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.685783537368366</v>
+        <v>2.584740993375647</v>
       </c>
       <c r="C20">
-        <v>1.534846576138705</v>
+        <v>0.6163187658634115</v>
       </c>
       <c r="D20">
-        <v>0.008739159279675945</v>
+        <v>0.0326563173900567</v>
       </c>
       <c r="E20">
-        <v>0.03071710462356236</v>
+        <v>0.07712034705577331</v>
       </c>
       <c r="F20">
-        <v>3.88446528563432</v>
+        <v>3.540833319601859</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08879494061110194</v>
+        <v>0.1485432682305543</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.291815080332441</v>
+        <v>0.7250369747451373</v>
       </c>
       <c r="N20">
-        <v>1.223446875370144</v>
+        <v>2.193970789588349</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.4921548945631</v>
+        <v>2.761865106983407</v>
       </c>
       <c r="C21">
-        <v>1.757271057321873</v>
+        <v>0.6652299230225367</v>
       </c>
       <c r="D21">
-        <v>0.01011647931692394</v>
+        <v>0.03296941306427392</v>
       </c>
       <c r="E21">
-        <v>0.03223248295795678</v>
+        <v>0.07704970387233523</v>
       </c>
       <c r="F21">
-        <v>4.32210130087401</v>
+        <v>3.61617830218924</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.09490312156197689</v>
+        <v>0.1489806867075387</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.470427773098052</v>
+        <v>0.762297511896449</v>
       </c>
       <c r="N21">
-        <v>1.205725020276461</v>
+        <v>2.182107677955344</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.036396683711189</v>
+        <v>2.878967492596018</v>
       </c>
       <c r="C22">
-        <v>1.907563788886591</v>
+        <v>0.6975149274951491</v>
       </c>
       <c r="D22">
-        <v>0.01109979702556707</v>
+        <v>0.03317309921769507</v>
       </c>
       <c r="E22">
-        <v>0.03327224251906102</v>
+        <v>0.07702295022555106</v>
       </c>
       <c r="F22">
-        <v>4.622903215849192</v>
+        <v>3.667192022681036</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09915163724404863</v>
+        <v>0.1493197083371243</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.591055388854983</v>
+        <v>0.7870288449404654</v>
       </c>
       <c r="N22">
-        <v>1.197853981453392</v>
+        <v>2.174992280748782</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.744172068982266</v>
+        <v>2.816343964809107</v>
       </c>
       <c r="C23">
-        <v>1.8268472020643</v>
+        <v>0.6802543229734397</v>
       </c>
       <c r="D23">
-        <v>0.01056634500209697</v>
+        <v>0.03306446673294339</v>
       </c>
       <c r="E23">
-        <v>0.03271244937140416</v>
+        <v>0.07703545546352863</v>
       </c>
       <c r="F23">
-        <v>4.46086990875375</v>
+        <v>3.639801994878439</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09685856806205351</v>
+        <v>0.1491338936189592</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.526278923855372</v>
+        <v>0.7737943420799382</v>
       </c>
       <c r="N23">
-        <v>1.201687032467277</v>
+        <v>2.178731259011528</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.67285800425816</v>
+        <v>2.581868411684297</v>
       </c>
       <c r="C24">
-        <v>1.531283508445824</v>
+        <v>0.6155246471868736</v>
       </c>
       <c r="D24">
-        <v>0.008717839792201865</v>
+        <v>0.03265118250625321</v>
       </c>
       <c r="E24">
-        <v>0.03069309971112943</v>
+        <v>0.0771218301059573</v>
       </c>
       <c r="F24">
-        <v>3.877533265714533</v>
+        <v>3.53963153743868</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08869899838866502</v>
+        <v>0.1485370138493067</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.288953353216215</v>
+        <v>0.7244343299538798</v>
       </c>
       <c r="N24">
-        <v>1.223793284929968</v>
+        <v>2.194175391516495</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.575770145450747</v>
+        <v>2.3346053777978</v>
       </c>
       <c r="C25">
-        <v>1.229067160562181</v>
+        <v>0.5470391175136342</v>
       </c>
       <c r="D25">
-        <v>0.006992834538645631</v>
+        <v>0.03220062190002704</v>
       </c>
       <c r="E25">
-        <v>0.02869716301624159</v>
+        <v>0.07729865296213134</v>
       </c>
       <c r="F25">
-        <v>3.299703695764265</v>
+        <v>3.439090955950263</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.0808142382139323</v>
+        <v>0.1481203722283979</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.04624722871209</v>
+        <v>0.6727997894977662</v>
       </c>
       <c r="N25">
-        <v>1.2610893768003</v>
+        <v>2.213544820171961</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_42/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.157254401178704</v>
+        <v>3.803943779318331</v>
       </c>
       <c r="C2">
-        <v>0.4977145929668723</v>
+        <v>1.016625477848777</v>
       </c>
       <c r="D2">
-        <v>0.03186391388148557</v>
+        <v>0.005876172592161666</v>
       </c>
       <c r="E2">
-        <v>0.07750110998551385</v>
+        <v>0.02735662721795151</v>
       </c>
       <c r="F2">
-        <v>3.371396017997341</v>
+        <v>2.907313971534933</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.148007748228558</v>
+        <v>0.07562625766356845</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6361323976315703</v>
+        <v>0.8757905034996796</v>
       </c>
       <c r="N2">
-        <v>2.230108892598309</v>
+        <v>1.297862128135264</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.039924398499068</v>
+        <v>3.29743278755268</v>
       </c>
       <c r="C3">
-        <v>0.4649510196443885</v>
+        <v>0.8772342061465395</v>
       </c>
       <c r="D3">
-        <v>0.03163220842849057</v>
+        <v>0.005184802141356748</v>
       </c>
       <c r="E3">
-        <v>0.0776835693080411</v>
+        <v>0.02651729380016832</v>
       </c>
       <c r="F3">
-        <v>3.329408434567313</v>
+        <v>2.657467000830891</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1480519533643339</v>
+        <v>0.0724254912699962</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6121101459420117</v>
+        <v>0.764114443051767</v>
       </c>
       <c r="N3">
-        <v>2.242756627550889</v>
+        <v>1.327676152261759</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.969273045247348</v>
+        <v>2.992951398277</v>
       </c>
       <c r="C4">
-        <v>0.4451547636293753</v>
+        <v>0.7934297244136701</v>
       </c>
       <c r="D4">
-        <v>0.03148807221456096</v>
+        <v>0.004784333528995433</v>
       </c>
       <c r="E4">
-        <v>0.07781798545161678</v>
+        <v>0.02603285575729508</v>
       </c>
       <c r="F4">
-        <v>3.305527948551259</v>
+        <v>2.51071085137373</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1481383786385919</v>
+        <v>0.07059587958912772</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5977641422962847</v>
+        <v>0.6970748742721327</v>
       </c>
       <c r="N4">
-        <v>2.25121920928099</v>
+        <v>1.348138114159269</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.940828943214512</v>
+        <v>2.870293100875585</v>
       </c>
       <c r="C5">
-        <v>0.4371674501127529</v>
+        <v>0.7596637097384757</v>
       </c>
       <c r="D5">
-        <v>0.03142884699625004</v>
+        <v>0.004626113957963973</v>
       </c>
       <c r="E5">
-        <v>0.07787840105262323</v>
+        <v>0.02584279462232164</v>
       </c>
       <c r="F5">
-        <v>3.296271856290588</v>
+        <v>2.452408835262602</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.148188485101592</v>
+        <v>0.06988177827019015</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.592019056531079</v>
+        <v>0.670091931522073</v>
       </c>
       <c r="N5">
-        <v>2.254842311893121</v>
+        <v>1.356984284770135</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.936126699630904</v>
+        <v>2.850005562299657</v>
       </c>
       <c r="C6">
-        <v>0.4358459600359481</v>
+        <v>0.7540784090046202</v>
       </c>
       <c r="D6">
-        <v>0.03141898264398169</v>
+        <v>0.004600113268978134</v>
       </c>
       <c r="E6">
-        <v>0.07788877398076011</v>
+        <v>0.02581166751240005</v>
       </c>
       <c r="F6">
-        <v>3.294763533110341</v>
+        <v>2.442813893824379</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.148197703844108</v>
+        <v>0.06976503116756305</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5910711768302335</v>
+        <v>0.6656304098926782</v>
       </c>
       <c r="N6">
-        <v>2.255454446561281</v>
+        <v>1.358482908613368</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.968888036908197</v>
+        <v>2.991291708858512</v>
       </c>
       <c r="C7">
-        <v>0.4450467218090921</v>
+        <v>0.7929728644022305</v>
       </c>
       <c r="D7">
-        <v>0.03148727548541785</v>
+        <v>0.004782180904841837</v>
       </c>
       <c r="E7">
-        <v>0.07781877738677601</v>
+        <v>0.02603026329074698</v>
       </c>
       <c r="F7">
-        <v>3.305401195893225</v>
+        <v>2.509918700425317</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1481389941381721</v>
+        <v>0.07058612481241155</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5976862536555387</v>
+        <v>0.696709672291469</v>
       </c>
       <c r="N7">
-        <v>2.251267365936911</v>
+        <v>1.348255403873893</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.116508977308001</v>
+        <v>3.627807381102514</v>
       </c>
       <c r="C8">
-        <v>0.4863506388049359</v>
+        <v>0.9681533913479257</v>
       </c>
       <c r="D8">
-        <v>0.03178439813018219</v>
+        <v>0.005632114633059793</v>
       </c>
       <c r="E8">
-        <v>0.07755938231198023</v>
+        <v>0.02706054062941021</v>
       </c>
       <c r="F8">
-        <v>3.356522875535745</v>
+        <v>2.819678670834179</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1480106735607123</v>
+        <v>0.07449280820167559</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6277654121183645</v>
+        <v>0.836936341382895</v>
       </c>
       <c r="N8">
-        <v>2.234324789872318</v>
+        <v>1.307672742148313</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.417154895888416</v>
+        <v>4.938875442929088</v>
       </c>
       <c r="C9">
-        <v>0.569934443296404</v>
+        <v>1.32905140541294</v>
       </c>
       <c r="D9">
-        <v>0.03235310807379044</v>
+        <v>0.007545488510790399</v>
       </c>
       <c r="E9">
-        <v>0.07722788679950199</v>
+        <v>0.02934777656877152</v>
       </c>
       <c r="F9">
-        <v>3.471966305026484</v>
+        <v>3.488539433612601</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1482304800106391</v>
+        <v>0.08336398801254319</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6899810506752857</v>
+        <v>1.126530331819872</v>
       </c>
       <c r="N9">
-        <v>2.206660632456348</v>
+        <v>1.246944032816344</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.645058048405133</v>
+        <v>5.958265404148278</v>
       </c>
       <c r="C10">
-        <v>0.6329864294455092</v>
+        <v>1.609974860050443</v>
       </c>
       <c r="D10">
-        <v>0.03276369182069594</v>
+        <v>0.009194113088263123</v>
       </c>
       <c r="E10">
-        <v>0.07709181703288692</v>
+        <v>0.0312253769539641</v>
       </c>
       <c r="F10">
-        <v>3.566223261354537</v>
+        <v>4.031222895112535</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1486810823754752</v>
+        <v>0.09083242576385686</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.7377037233239747</v>
+        <v>1.352153032069381</v>
       </c>
       <c r="N10">
-        <v>2.189768822909571</v>
+        <v>1.216613010729262</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.7503098524341</v>
+        <v>6.438954607683115</v>
       </c>
       <c r="C11">
-        <v>0.6620420758732166</v>
+        <v>1.742587621060409</v>
       </c>
       <c r="D11">
-        <v>0.03294918205976138</v>
+        <v>0.01002270881578227</v>
       </c>
       <c r="E11">
-        <v>0.07705314888685599</v>
+        <v>0.03213151766531297</v>
       </c>
       <c r="F11">
-        <v>3.611193115692458</v>
+        <v>4.292925071123193</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.148949248341296</v>
+        <v>0.09449303507463469</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.7598610339173035</v>
+        <v>1.45863932028179</v>
       </c>
       <c r="N11">
-        <v>2.182839306108662</v>
+        <v>1.206666036578071</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.790396332125795</v>
+        <v>6.623890113903656</v>
       </c>
       <c r="C12">
-        <v>0.6730994220945377</v>
+        <v>1.793636229624326</v>
       </c>
       <c r="D12">
-        <v>0.03301926012254697</v>
+        <v>0.01035046493403158</v>
       </c>
       <c r="E12">
-        <v>0.07704183779621232</v>
+        <v>0.03248303360436644</v>
       </c>
       <c r="F12">
-        <v>3.628525898786904</v>
+        <v>4.394525012030044</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1490599119669724</v>
+        <v>0.09592266689534057</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7683165694784577</v>
+        <v>1.499620930823497</v>
       </c>
       <c r="N12">
-        <v>2.18032460823342</v>
+        <v>1.203528404296208</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.781752716864162</v>
+        <v>6.583923269123545</v>
       </c>
       <c r="C13">
-        <v>0.6707155805866023</v>
+        <v>1.782602592450814</v>
       </c>
       <c r="D13">
-        <v>0.03300417445610471</v>
+        <v>0.0102792065125783</v>
       </c>
       <c r="E13">
-        <v>0.07704412580211439</v>
+        <v>0.03240693976678877</v>
       </c>
       <c r="F13">
-        <v>3.624779421606206</v>
+        <v>4.372526030636976</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1490356727092887</v>
+        <v>0.09561273950021132</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7664926158031307</v>
+        <v>1.490763724366616</v>
       </c>
       <c r="N13">
-        <v>2.180861316061169</v>
+        <v>1.204174836868589</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.753603165805316</v>
+        <v>6.454108102230578</v>
       </c>
       <c r="C14">
-        <v>0.6629506704393293</v>
+        <v>1.74676989316248</v>
       </c>
       <c r="D14">
-        <v>0.03295495056466713</v>
+        <v>0.01004937602399636</v>
       </c>
       <c r="E14">
-        <v>0.07705215159424661</v>
+        <v>0.03216026347424616</v>
       </c>
       <c r="F14">
-        <v>3.612612991494757</v>
+        <v>4.301231366054026</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1489581698558951</v>
+        <v>0.09460974595913996</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7605553687665321</v>
+        <v>1.461997067573009</v>
       </c>
       <c r="N14">
-        <v>2.182630223804338</v>
+        <v>1.206394818002607</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.736390785550043</v>
+        <v>6.374986621176845</v>
       </c>
       <c r="C15">
-        <v>0.658201578878618</v>
+        <v>1.724934040808364</v>
       </c>
       <c r="D15">
-        <v>0.03292477893173995</v>
+        <v>0.009910507803825297</v>
       </c>
       <c r="E15">
-        <v>0.07705750125069954</v>
+        <v>0.03201028761611902</v>
       </c>
       <c r="F15">
-        <v>3.605200335126085</v>
+        <v>4.257898645011579</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1489118850425939</v>
+        <v>0.09400122152350576</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7569271226253846</v>
+        <v>1.444465666642515</v>
       </c>
       <c r="N15">
-        <v>2.183727997933005</v>
+        <v>1.207838992122788</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.638211599187287</v>
+        <v>5.927231054148763</v>
       </c>
       <c r="C16">
-        <v>0.6310951623412961</v>
+        <v>1.60141657542556</v>
       </c>
       <c r="D16">
-        <v>0.03275154557522875</v>
+        <v>0.009141762109296181</v>
       </c>
       <c r="E16">
-        <v>0.07709481078580183</v>
+        <v>0.03116727900865257</v>
       </c>
       <c r="F16">
-        <v>3.563326713419087</v>
+        <v>4.01444849856162</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.148664831003444</v>
+        <v>0.09059895078273428</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.7362647588057598</v>
+        <v>1.34527988485371</v>
       </c>
       <c r="N16">
-        <v>2.190236940317405</v>
+        <v>1.217346721159601</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.578388043800032</v>
+        <v>5.657203769490764</v>
       </c>
       <c r="C17">
-        <v>0.6145624664045499</v>
+        <v>1.526968330811599</v>
       </c>
       <c r="D17">
-        <v>0.03264495850221927</v>
+        <v>0.008692051167082937</v>
       </c>
       <c r="E17">
-        <v>0.07712364253578308</v>
+        <v>0.03066404041392801</v>
       </c>
       <c r="F17">
-        <v>3.538176407387084</v>
+        <v>3.869141476945032</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1485294748784938</v>
+        <v>0.08858288952311</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.7237042523715758</v>
+        <v>1.285487549257624</v>
       </c>
       <c r="N17">
-        <v>2.194423844988449</v>
+        <v>1.224215560310782</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.54412741306561</v>
+        <v>5.50345581759052</v>
       </c>
       <c r="C18">
-        <v>0.6050883445625459</v>
+        <v>1.484591822355299</v>
       </c>
       <c r="D18">
-        <v>0.03258353001874426</v>
+        <v>0.008440602991138135</v>
       </c>
       <c r="E18">
-        <v>0.07714241289024493</v>
+        <v>0.03037942497192958</v>
       </c>
       <c r="F18">
-        <v>3.523907340955191</v>
+        <v>3.786935819563666</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1484575670595802</v>
+        <v>0.08744769462217761</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.7165219138567949</v>
+        <v>1.25145179395733</v>
       </c>
       <c r="N18">
-        <v>2.19690302216965</v>
+        <v>1.228523623882296</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.532552730047769</v>
+        <v>5.451654994586818</v>
       </c>
       <c r="C19">
-        <v>0.6018865599619403</v>
+        <v>1.470316297560089</v>
       </c>
       <c r="D19">
-        <v>0.03256270970499209</v>
+        <v>0.008356632351355309</v>
       </c>
       <c r="E19">
-        <v>0.07714914411893581</v>
+        <v>0.03028386408601946</v>
       </c>
       <c r="F19">
-        <v>3.519109781418734</v>
+        <v>3.759327652280291</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1484342405713193</v>
+        <v>0.08706736951914706</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.7140973152155539</v>
+        <v>1.239985971394532</v>
       </c>
       <c r="N19">
-        <v>2.197754594449364</v>
+        <v>1.23004152300652</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.584740993375647</v>
+        <v>5.685783537368366</v>
       </c>
       <c r="C20">
-        <v>0.6163187658634115</v>
+        <v>1.53484657613842</v>
       </c>
       <c r="D20">
-        <v>0.0326563173900567</v>
+        <v>0.008739159279722131</v>
       </c>
       <c r="E20">
-        <v>0.07712034705577331</v>
+        <v>0.03071710462355703</v>
       </c>
       <c r="F20">
-        <v>3.540833319601859</v>
+        <v>3.884465285634349</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1485432682305543</v>
+        <v>0.08879494061093141</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.7250369747451373</v>
+        <v>1.291815080332427</v>
       </c>
       <c r="N20">
-        <v>2.193970789588349</v>
+        <v>1.223446875370158</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.761865106983407</v>
+        <v>6.4921548945631</v>
       </c>
       <c r="C21">
-        <v>0.6652299230225367</v>
+        <v>1.757271057321816</v>
       </c>
       <c r="D21">
-        <v>0.03296941306427392</v>
+        <v>0.01011647931684223</v>
       </c>
       <c r="E21">
-        <v>0.07704970387233523</v>
+        <v>0.03223248295793191</v>
       </c>
       <c r="F21">
-        <v>3.61617830218924</v>
+        <v>4.322101300873953</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1489806867075387</v>
+        <v>0.09490312156215452</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.762297511896449</v>
+        <v>1.470427773098038</v>
       </c>
       <c r="N21">
-        <v>2.182107677955344</v>
+        <v>1.205725020276475</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.878967492596018</v>
+        <v>7.036396683711359</v>
       </c>
       <c r="C22">
-        <v>0.6975149274951491</v>
+        <v>1.907563788886591</v>
       </c>
       <c r="D22">
-        <v>0.03317309921769507</v>
+        <v>0.01109979702553687</v>
       </c>
       <c r="E22">
-        <v>0.07702295022555106</v>
+        <v>0.03327224251907701</v>
       </c>
       <c r="F22">
-        <v>3.667192022681036</v>
+        <v>4.622903215849192</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1493197083371243</v>
+        <v>0.09915163724418363</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7870288449404654</v>
+        <v>1.591055388855011</v>
       </c>
       <c r="N22">
-        <v>2.174992280748782</v>
+        <v>1.197853981453363</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.816343964809107</v>
+        <v>6.744172068982209</v>
       </c>
       <c r="C23">
-        <v>0.6802543229734397</v>
+        <v>1.826847202064357</v>
       </c>
       <c r="D23">
-        <v>0.03306446673294339</v>
+        <v>0.01056634500216447</v>
       </c>
       <c r="E23">
-        <v>0.07703545546352863</v>
+        <v>0.03271244937144502</v>
       </c>
       <c r="F23">
-        <v>3.639801994878439</v>
+        <v>4.46086990875375</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1491338936189592</v>
+        <v>0.09685856806198956</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7737943420799382</v>
+        <v>1.526278923855386</v>
       </c>
       <c r="N23">
-        <v>2.178731259011528</v>
+        <v>1.201687032467262</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.581868411684297</v>
+        <v>5.672858004258217</v>
       </c>
       <c r="C24">
-        <v>0.6155246471868736</v>
+        <v>1.531283508445824</v>
       </c>
       <c r="D24">
-        <v>0.03265118250625321</v>
+        <v>0.008717839792338644</v>
       </c>
       <c r="E24">
-        <v>0.0771218301059573</v>
+        <v>0.03069309971116496</v>
       </c>
       <c r="F24">
-        <v>3.53963153743868</v>
+        <v>3.877533265714561</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1485370138493067</v>
+        <v>0.08869899838876449</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.7244343299538798</v>
+        <v>1.288953353216201</v>
       </c>
       <c r="N24">
-        <v>2.194175391516495</v>
+        <v>1.223793284929954</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.3346053777978</v>
+        <v>4.575770145450917</v>
       </c>
       <c r="C25">
-        <v>0.5470391175136342</v>
+        <v>1.229067160562465</v>
       </c>
       <c r="D25">
-        <v>0.03220062190002704</v>
+        <v>0.006992834539009785</v>
       </c>
       <c r="E25">
-        <v>0.07729865296213134</v>
+        <v>0.02869716301624337</v>
       </c>
       <c r="F25">
-        <v>3.439090955950263</v>
+        <v>3.299703695764293</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1481203722283979</v>
+        <v>0.08081423821383993</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6727997894977662</v>
+        <v>1.046247228712105</v>
       </c>
       <c r="N25">
-        <v>2.213544820171961</v>
+        <v>1.261089376800271</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_42/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.803943779318331</v>
+        <v>0.9093787617316309</v>
       </c>
       <c r="C2">
-        <v>1.016625477848777</v>
+        <v>0.1049969821428292</v>
       </c>
       <c r="D2">
-        <v>0.005876172592161666</v>
+        <v>0.07315718783826242</v>
       </c>
       <c r="E2">
-        <v>0.02735662721795151</v>
+        <v>0.04714035791882942</v>
       </c>
       <c r="F2">
-        <v>2.907313971534933</v>
+        <v>0.830689151101474</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.01346736940191942</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01289337901290466</v>
       </c>
       <c r="J2">
-        <v>0.07562625766356845</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5083933709423114</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.06179108715326187</v>
       </c>
       <c r="M2">
-        <v>0.8757905034996796</v>
+        <v>0.8124035030612333</v>
       </c>
       <c r="N2">
-        <v>1.297862128135264</v>
+        <v>0.1541225488111593</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.2004904109204908</v>
+      </c>
+      <c r="P2">
+        <v>1.128954884851011</v>
+      </c>
+      <c r="Q2">
+        <v>2.156510820830647</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.29743278755268</v>
+        <v>0.7943332212936127</v>
       </c>
       <c r="C3">
-        <v>0.8772342061465395</v>
+        <v>0.09609051188253659</v>
       </c>
       <c r="D3">
-        <v>0.005184802141356748</v>
+        <v>0.06606308754712842</v>
       </c>
       <c r="E3">
-        <v>0.02651729380016832</v>
+        <v>0.04493196417874756</v>
       </c>
       <c r="F3">
-        <v>2.657467000830891</v>
+        <v>0.8113884350800973</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0.01624888068686337</v>
+      </c>
+      <c r="I3">
+        <v>0.01548613872958304</v>
+      </c>
+      <c r="J3">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0.0724254912699962</v>
-      </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5069042007632163</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.05992467850882566</v>
       </c>
       <c r="M3">
-        <v>0.764114443051767</v>
+        <v>0.7072966471600068</v>
       </c>
       <c r="N3">
-        <v>1.327676152261759</v>
+        <v>0.1397856491328469</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.1766066342473316</v>
+      </c>
+      <c r="P3">
+        <v>1.160879207510156</v>
+      </c>
+      <c r="Q3">
+        <v>2.12715757258286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.992951398277</v>
+        <v>0.7234084916101722</v>
       </c>
       <c r="C4">
-        <v>0.7934297244136701</v>
+        <v>0.09066422157761878</v>
       </c>
       <c r="D4">
-        <v>0.004784333528995433</v>
+        <v>0.06173060809209119</v>
       </c>
       <c r="E4">
-        <v>0.02603285575729508</v>
+        <v>0.04356313916061616</v>
       </c>
       <c r="F4">
-        <v>2.51071085137373</v>
+        <v>0.8000162463827252</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0.01815879625722883</v>
+      </c>
+      <c r="I4">
+        <v>0.01729925102860763</v>
+      </c>
+      <c r="J4">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0.07059587958912772</v>
-      </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5062107726307374</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.05874252163444638</v>
       </c>
       <c r="M4">
-        <v>0.6970748742721327</v>
+        <v>0.6426967679210804</v>
       </c>
       <c r="N4">
-        <v>1.348138114159269</v>
+        <v>0.1310354275477863</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1619287029748762</v>
+      </c>
+      <c r="P4">
+        <v>1.181082964896552</v>
+      </c>
+      <c r="Q4">
+        <v>2.110502972121438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.870293100875585</v>
+        <v>0.6938182478282613</v>
       </c>
       <c r="C5">
-        <v>0.7596637097384757</v>
+        <v>0.08862118548202602</v>
       </c>
       <c r="D5">
-        <v>0.004626113957963973</v>
+        <v>0.05999596060600254</v>
       </c>
       <c r="E5">
-        <v>0.02584279462232164</v>
+        <v>0.04298736040273887</v>
       </c>
       <c r="F5">
-        <v>2.452408835262602</v>
+        <v>0.7950543476408001</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0.01899174925528668</v>
+      </c>
+      <c r="I5">
+        <v>0.01818223295538512</v>
+      </c>
+      <c r="J5">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0.06988177827019015</v>
-      </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5056424266908763</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.05823182451828046</v>
       </c>
       <c r="M5">
-        <v>0.670091931522073</v>
+        <v>0.6163030736101831</v>
       </c>
       <c r="N5">
-        <v>1.356984284770135</v>
+        <v>0.1275903838710732</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1559047565222258</v>
+      </c>
+      <c r="P5">
+        <v>1.18934035801583</v>
+      </c>
+      <c r="Q5">
+        <v>2.102767059150111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.850005562299657</v>
+        <v>0.6881481526846756</v>
       </c>
       <c r="C6">
-        <v>0.7540784090046202</v>
+        <v>0.08847828171204952</v>
       </c>
       <c r="D6">
-        <v>0.004600113268978134</v>
+        <v>0.05973930389921378</v>
       </c>
       <c r="E6">
-        <v>0.02581166751240005</v>
+        <v>0.04287369552301179</v>
       </c>
       <c r="F6">
-        <v>2.442813893824379</v>
+        <v>0.7936938371770452</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0.01913949798281084</v>
+      </c>
+      <c r="I6">
+        <v>0.01844937134542235</v>
+      </c>
+      <c r="J6">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0.06976503116756305</v>
-      </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5051356814982988</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.05812252852470401</v>
       </c>
       <c r="M6">
-        <v>0.6656304098926782</v>
+        <v>0.6118592000128444</v>
       </c>
       <c r="N6">
-        <v>1.358482908613368</v>
+        <v>0.1271520434902413</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1548569742203796</v>
+      </c>
+      <c r="P6">
+        <v>1.190569699060519</v>
+      </c>
+      <c r="Q6">
+        <v>2.099933499393117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.991291708858512</v>
+        <v>0.7209485755083165</v>
       </c>
       <c r="C7">
-        <v>0.7929728644022305</v>
+        <v>0.09117276547341646</v>
       </c>
       <c r="D7">
-        <v>0.004782180904841837</v>
+        <v>0.06179213412838891</v>
       </c>
       <c r="E7">
-        <v>0.02603026329074698</v>
+        <v>0.04350675163810891</v>
       </c>
       <c r="F7">
-        <v>2.509918700425317</v>
+        <v>0.7984660325569664</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0.01818675811104864</v>
+      </c>
+      <c r="I7">
+        <v>0.0176144132582694</v>
+      </c>
+      <c r="J7">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0.07058612481241155</v>
-      </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5050696136934363</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.0586707044848378</v>
       </c>
       <c r="M7">
-        <v>0.696709672291469</v>
+        <v>0.6421761227338294</v>
       </c>
       <c r="N7">
-        <v>1.348255403873893</v>
+        <v>0.1313527386500652</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1617180048804379</v>
+      </c>
+      <c r="P7">
+        <v>1.180795602839093</v>
+      </c>
+      <c r="Q7">
+        <v>2.106118276460549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.627807381102514</v>
+        <v>0.8670155832988939</v>
       </c>
       <c r="C8">
-        <v>0.9681533913479257</v>
+        <v>0.1026339201469426</v>
       </c>
       <c r="D8">
-        <v>0.005632114633059793</v>
+        <v>0.0708190729209619</v>
       </c>
       <c r="E8">
-        <v>0.02706054062941021</v>
+        <v>0.04631761451255123</v>
       </c>
       <c r="F8">
-        <v>2.819678670834179</v>
+        <v>0.8219790258908048</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0.0144023641275168</v>
+      </c>
+      <c r="I8">
+        <v>0.01410582853426945</v>
+      </c>
+      <c r="J8">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0.07449280820167559</v>
-      </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.5063439957937597</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.06107068365255408</v>
       </c>
       <c r="M8">
-        <v>0.836936341382895</v>
+        <v>0.7759505730369369</v>
       </c>
       <c r="N8">
-        <v>1.307672742148313</v>
+        <v>0.1496522095390063</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.1920844676434115</v>
+      </c>
+      <c r="P8">
+        <v>1.139369209259607</v>
+      </c>
+      <c r="Q8">
+        <v>2.140467771696919</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.938875442929088</v>
+        <v>1.154990990338604</v>
       </c>
       <c r="C9">
-        <v>1.32905140541294</v>
+        <v>0.1245557694685147</v>
       </c>
       <c r="D9">
-        <v>0.007545488510790399</v>
+        <v>0.08857010557673561</v>
       </c>
       <c r="E9">
-        <v>0.02934777656877152</v>
+        <v>0.05182070047369258</v>
       </c>
       <c r="F9">
-        <v>3.488539433612601</v>
+        <v>0.8746923228848118</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0.008630068827939444</v>
+      </c>
+      <c r="I9">
+        <v>0.00858775509679699</v>
+      </c>
+      <c r="J9">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0.08336398801254319</v>
-      </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.5126625901939548</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.06561501071080134</v>
       </c>
       <c r="M9">
-        <v>1.126530331819872</v>
+        <v>1.038269857657326</v>
       </c>
       <c r="N9">
-        <v>1.246944032816344</v>
+        <v>0.185348461536762</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.2517975839509354</v>
+      </c>
+      <c r="P9">
+        <v>1.063643267136899</v>
+      </c>
+      <c r="Q9">
+        <v>2.226762897184614</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.958265404148278</v>
+        <v>1.358453649464536</v>
       </c>
       <c r="C10">
-        <v>1.609974860050443</v>
+        <v>0.1421291761092647</v>
       </c>
       <c r="D10">
-        <v>0.009194113088263123</v>
+        <v>0.1002632947621009</v>
       </c>
       <c r="E10">
-        <v>0.0312253769539641</v>
+        <v>0.05431975493904417</v>
       </c>
       <c r="F10">
-        <v>4.031222895112535</v>
+        <v>0.9065752737334378</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0.005855021602109378</v>
+      </c>
+      <c r="I10">
+        <v>0.005948080827860913</v>
+      </c>
+      <c r="J10">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0.09083242576385686</v>
-      </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.5135887795159206</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.06789672164329108</v>
       </c>
       <c r="M10">
-        <v>1.352153032069381</v>
+        <v>1.228733678076338</v>
       </c>
       <c r="N10">
-        <v>1.216613010729262</v>
+        <v>0.2052556934307574</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.2914095682541316</v>
+      </c>
+      <c r="P10">
+        <v>1.010191390991363</v>
+      </c>
+      <c r="Q10">
+        <v>2.27558999923707</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.438954607683115</v>
+        <v>1.39588617335599</v>
       </c>
       <c r="C11">
-        <v>1.742587621060409</v>
+        <v>0.1587340979502443</v>
       </c>
       <c r="D11">
-        <v>0.01002270881578227</v>
+        <v>0.09260281079836119</v>
       </c>
       <c r="E11">
-        <v>0.03213151766531297</v>
+        <v>0.04440621172607706</v>
       </c>
       <c r="F11">
-        <v>4.292925071123193</v>
+        <v>0.8444025934949977</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0.02438389534577468</v>
+      </c>
+      <c r="I11">
+        <v>0.005869016837771746</v>
+      </c>
+      <c r="J11">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0.09449303507463469</v>
-      </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.475875825332956</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.0654840882948311</v>
       </c>
       <c r="M11">
-        <v>1.45863932028179</v>
+        <v>1.295043007657483</v>
       </c>
       <c r="N11">
-        <v>1.206666036578071</v>
+        <v>0.1595829512963221</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.2731843573244284</v>
+      </c>
+      <c r="P11">
+        <v>0.9830800431377398</v>
+      </c>
+      <c r="Q11">
+        <v>2.121574850657538</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.623890113903656</v>
+        <v>1.387014549010416</v>
       </c>
       <c r="C12">
-        <v>1.793636229624326</v>
+        <v>0.1686921124397998</v>
       </c>
       <c r="D12">
-        <v>0.01035046493403158</v>
+        <v>0.08381009201090706</v>
       </c>
       <c r="E12">
-        <v>0.03248303360436644</v>
+        <v>0.0379967125844356</v>
       </c>
       <c r="F12">
-        <v>4.394525012030044</v>
+        <v>0.7885832851984844</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.06326823734475084</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.005777492672762286</v>
       </c>
       <c r="J12">
-        <v>0.09592266689534057</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.4466439634531447</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.06871513733301349</v>
       </c>
       <c r="M12">
-        <v>1.499620930823497</v>
+        <v>1.310541900275922</v>
       </c>
       <c r="N12">
-        <v>1.203528404296208</v>
+        <v>0.1219565511231693</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.2501992643650581</v>
+      </c>
+      <c r="P12">
+        <v>0.9764760962383683</v>
+      </c>
+      <c r="Q12">
+        <v>1.990212613248161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.583923269123545</v>
+        <v>1.338759391933394</v>
       </c>
       <c r="C13">
-        <v>1.782602592450814</v>
+        <v>0.1748555291626275</v>
       </c>
       <c r="D13">
-        <v>0.0102792065125783</v>
+        <v>0.07382010910895787</v>
       </c>
       <c r="E13">
-        <v>0.03240693976678877</v>
+        <v>0.03381803314421017</v>
       </c>
       <c r="F13">
-        <v>4.372526030636976</v>
+        <v>0.7320604784913414</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0.1194837995016229</v>
+      </c>
+      <c r="I13">
+        <v>0.006077216424868581</v>
+      </c>
+      <c r="J13">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0.09561273950021132</v>
-      </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.4204118110323876</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.07619962848990269</v>
       </c>
       <c r="M13">
-        <v>1.490763724366616</v>
+        <v>1.287388706991067</v>
       </c>
       <c r="N13">
-        <v>1.204174836868589</v>
+        <v>0.08905674507391126</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.2221713155306766</v>
+      </c>
+      <c r="P13">
+        <v>0.9839824850947281</v>
+      </c>
+      <c r="Q13">
+        <v>1.861683477779366</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.454108102230578</v>
+        <v>1.286719845333124</v>
       </c>
       <c r="C14">
-        <v>1.74676989316248</v>
+        <v>0.1776736331976423</v>
       </c>
       <c r="D14">
-        <v>0.01004937602399636</v>
+        <v>0.06641287922651884</v>
       </c>
       <c r="E14">
-        <v>0.03216026347424616</v>
+        <v>0.03222480248070764</v>
       </c>
       <c r="F14">
-        <v>4.301231366054026</v>
+        <v>0.6922860138575402</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0.1692628658234554</v>
+      </c>
+      <c r="I14">
+        <v>0.006570514745735778</v>
+      </c>
+      <c r="J14">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0.09460974595913996</v>
-      </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.4034083921095046</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08402077907827987</v>
       </c>
       <c r="M14">
-        <v>1.461997067573009</v>
+        <v>1.253683175329428</v>
       </c>
       <c r="N14">
-        <v>1.206394818002607</v>
+        <v>0.06917929682439805</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2005077193021414</v>
+      </c>
+      <c r="P14">
+        <v>0.9959980725575122</v>
+      </c>
+      <c r="Q14">
+        <v>1.77296690587292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.374986621176845</v>
+        <v>1.265027590141756</v>
       </c>
       <c r="C15">
-        <v>1.724934040808364</v>
+        <v>0.1777448174960341</v>
       </c>
       <c r="D15">
-        <v>0.009910507803825297</v>
+        <v>0.06436095995865543</v>
       </c>
       <c r="E15">
-        <v>0.03201028761611902</v>
+        <v>0.03199504901551631</v>
       </c>
       <c r="F15">
-        <v>4.257898645011579</v>
+        <v>0.6819106314539951</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0.1819832381968354</v>
+      </c>
+      <c r="I15">
+        <v>0.006918136378555317</v>
+      </c>
+      <c r="J15">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0.09400122152350576</v>
-      </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.3994701050765954</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08609585013241983</v>
       </c>
       <c r="M15">
-        <v>1.444465666642515</v>
+        <v>1.237257026216184</v>
       </c>
       <c r="N15">
-        <v>1.207838992122788</v>
+        <v>0.06471004074575859</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.1940938305368292</v>
+      </c>
+      <c r="P15">
+        <v>1.001359532964916</v>
+      </c>
+      <c r="Q15">
+        <v>1.750456776762661</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.927231054148763</v>
+        <v>1.187115843989972</v>
       </c>
       <c r="C16">
-        <v>1.60141657542556</v>
+        <v>0.1689871088860002</v>
       </c>
       <c r="D16">
-        <v>0.009141762109296181</v>
+        <v>0.06165042656013497</v>
       </c>
       <c r="E16">
-        <v>0.03116727900865257</v>
+        <v>0.03181950708815962</v>
       </c>
       <c r="F16">
-        <v>4.01444849856162</v>
+        <v>0.6791485487204341</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0.170419098840128</v>
+      </c>
+      <c r="I16">
+        <v>0.008105207533222192</v>
+      </c>
+      <c r="J16">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0.09059895078273428</v>
-      </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.4037315520626628</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08325801584384962</v>
       </c>
       <c r="M16">
-        <v>1.34527988485371</v>
+        <v>1.160101277028843</v>
       </c>
       <c r="N16">
-        <v>1.217346721159601</v>
+        <v>0.06382084403426447</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.1834360275751656</v>
+      </c>
+      <c r="P16">
+        <v>1.020326144359014</v>
+      </c>
+      <c r="Q16">
+        <v>1.753105598906956</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.657203769490764</v>
+        <v>1.154877893662643</v>
       </c>
       <c r="C17">
-        <v>1.526968330811599</v>
+        <v>0.1608096484532098</v>
       </c>
       <c r="D17">
-        <v>0.008692051167082937</v>
+        <v>0.06344377641247689</v>
       </c>
       <c r="E17">
-        <v>0.03066404041392801</v>
+        <v>0.03230327018432866</v>
       </c>
       <c r="F17">
-        <v>3.869141476945032</v>
+        <v>0.6979840187506809</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0.1333282318257432</v>
+      </c>
+      <c r="I17">
+        <v>0.008793740635232083</v>
+      </c>
+      <c r="J17">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0.08858288952311</v>
-      </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.4159198804819297</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.07648784962759336</v>
       </c>
       <c r="M17">
-        <v>1.285487549257624</v>
+        <v>1.118924727842824</v>
       </c>
       <c r="N17">
-        <v>1.224215560310782</v>
+        <v>0.07307492366751944</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.1865808250415775</v>
+      </c>
+      <c r="P17">
+        <v>1.028586346917223</v>
+      </c>
+      <c r="Q17">
+        <v>1.801993440926069</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.50345581759052</v>
+        <v>1.159699832860241</v>
       </c>
       <c r="C18">
-        <v>1.484591822355299</v>
+        <v>0.1518411024099464</v>
       </c>
       <c r="D18">
-        <v>0.008440602991138135</v>
+        <v>0.06944181645606307</v>
       </c>
       <c r="E18">
-        <v>0.03037942497192958</v>
+        <v>0.03461662682743238</v>
       </c>
       <c r="F18">
-        <v>3.786935819563666</v>
+        <v>0.7393365752328336</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0.08065732169414019</v>
+      </c>
+      <c r="I18">
+        <v>0.008734064318032253</v>
+      </c>
+      <c r="J18">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0.08744769462217761</v>
-      </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.4376778457435009</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.06821334406194168</v>
       </c>
       <c r="M18">
-        <v>1.25145179395733</v>
+        <v>1.103872086281939</v>
       </c>
       <c r="N18">
-        <v>1.228523623882296</v>
+        <v>0.09487812053982481</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.202464298501976</v>
+      </c>
+      <c r="P18">
+        <v>1.030539343299811</v>
+      </c>
+      <c r="Q18">
+        <v>1.900814301215703</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.451654994586818</v>
+        <v>1.189984655201329</v>
       </c>
       <c r="C19">
-        <v>1.470316297560089</v>
+        <v>0.1444570476575819</v>
       </c>
       <c r="D19">
-        <v>0.008356632351355309</v>
+        <v>0.07886368099595842</v>
       </c>
       <c r="E19">
-        <v>0.03028386408601946</v>
+        <v>0.03998244412301677</v>
       </c>
       <c r="F19">
-        <v>3.759327652280291</v>
+        <v>0.7950096533355904</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0.03490208849443377</v>
+      </c>
+      <c r="I19">
+        <v>0.008647062829127528</v>
+      </c>
+      <c r="J19">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0.08706736951914706</v>
-      </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.4649764808708312</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.06335119792874089</v>
       </c>
       <c r="M19">
-        <v>1.239985971394532</v>
+        <v>1.110401877562367</v>
       </c>
       <c r="N19">
-        <v>1.23004152300652</v>
+        <v>0.1301714535238219</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2280116948667761</v>
+      </c>
+      <c r="P19">
+        <v>1.030686099793581</v>
+      </c>
+      <c r="Q19">
+        <v>2.029301927671327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.685783537368366</v>
+        <v>1.298268370465138</v>
       </c>
       <c r="C20">
-        <v>1.53484657613842</v>
+        <v>0.1392765718744471</v>
       </c>
       <c r="D20">
-        <v>0.008739159279722131</v>
+        <v>0.09738779238048068</v>
       </c>
       <c r="E20">
-        <v>0.03071710462355703</v>
+        <v>0.05345773790780761</v>
       </c>
       <c r="F20">
-        <v>3.884465285634349</v>
+        <v>0.8931089537521046</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0.00652556692781836</v>
+      </c>
+      <c r="I20">
+        <v>0.007453343511681254</v>
+      </c>
+      <c r="J20">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0.08879494061093141</v>
-      </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.5096492734426299</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.0670841392937982</v>
       </c>
       <c r="M20">
-        <v>1.291815080332427</v>
+        <v>1.178064184696922</v>
       </c>
       <c r="N20">
-        <v>1.223446875370158</v>
+        <v>0.2008642788396386</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.2804214274543355</v>
+      </c>
+      <c r="P20">
+        <v>1.023188513417094</v>
+      </c>
+      <c r="Q20">
+        <v>2.248336668802551</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.4921548945631</v>
+        <v>1.464463739255649</v>
       </c>
       <c r="C21">
-        <v>1.757271057321816</v>
+        <v>0.1512899020448515</v>
       </c>
       <c r="D21">
-        <v>0.01011647931684223</v>
+        <v>0.1087384947922487</v>
       </c>
       <c r="E21">
-        <v>0.03223248295793191</v>
+        <v>0.05767250121888878</v>
       </c>
       <c r="F21">
-        <v>4.322101300873953</v>
+        <v>0.9330652624913611</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
+        <v>0.004255789873267468</v>
+      </c>
+      <c r="I21">
+        <v>0.00555322171977668</v>
+      </c>
+      <c r="J21">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0.09490312156215452</v>
-      </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.5182464449901012</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.0701882405166856</v>
       </c>
       <c r="M21">
-        <v>1.470427773098038</v>
+        <v>1.327947412804264</v>
       </c>
       <c r="N21">
-        <v>1.205725020276475</v>
+        <v>0.2266501604397888</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.3174140547028372</v>
+      </c>
+      <c r="P21">
+        <v>0.9848347758200422</v>
+      </c>
+      <c r="Q21">
+        <v>2.322349711302053</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.036396683711359</v>
+        <v>1.572702227904415</v>
       </c>
       <c r="C22">
-        <v>1.907563788886591</v>
+        <v>0.1589355434894202</v>
       </c>
       <c r="D22">
-        <v>0.01109979702553687</v>
+        <v>0.1152962018510948</v>
       </c>
       <c r="E22">
-        <v>0.03327224251907701</v>
+        <v>0.05973370056304894</v>
       </c>
       <c r="F22">
-        <v>4.622903215849192</v>
+        <v>0.9571651931021137</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0.003163503245952826</v>
+      </c>
+      <c r="I22">
+        <v>0.004243113787461894</v>
+      </c>
+      <c r="J22">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0.09915163724418363</v>
-      </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.523320185474546</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.07182795653200191</v>
       </c>
       <c r="M22">
-        <v>1.591055388855011</v>
+        <v>1.425101882101131</v>
       </c>
       <c r="N22">
-        <v>1.197853981453363</v>
+        <v>0.2396047044436358</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.3396505257456539</v>
+      </c>
+      <c r="P22">
+        <v>0.960241736103058</v>
+      </c>
+      <c r="Q22">
+        <v>2.367532338537302</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.744172068982209</v>
+        <v>1.517461918098064</v>
       </c>
       <c r="C23">
-        <v>1.826847202064357</v>
+        <v>0.1541770927616568</v>
       </c>
       <c r="D23">
-        <v>0.01056634500216447</v>
+        <v>0.1116906822619086</v>
       </c>
       <c r="E23">
-        <v>0.03271244937144502</v>
+        <v>0.05868986147406297</v>
       </c>
       <c r="F23">
-        <v>4.46086990875375</v>
+        <v>0.9459662558663453</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0.003716988211737493</v>
+      </c>
+      <c r="I23">
+        <v>0.004582391978887657</v>
+      </c>
+      <c r="J23">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0.09685856806198956</v>
-      </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.5218851197352947</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.07102536889788702</v>
       </c>
       <c r="M23">
-        <v>1.526278923855386</v>
+        <v>1.373449175893597</v>
       </c>
       <c r="N23">
-        <v>1.201687032467262</v>
+        <v>0.2322410268829458</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.3279394085680707</v>
+      </c>
+      <c r="P23">
+        <v>0.9735699885845754</v>
+      </c>
+      <c r="Q23">
+        <v>2.348195894875602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.672858004258217</v>
+        <v>1.304015070161</v>
       </c>
       <c r="C24">
-        <v>1.531283508445824</v>
+        <v>0.1374090771780772</v>
       </c>
       <c r="D24">
-        <v>0.008717839792338644</v>
+        <v>0.09826542318123188</v>
       </c>
       <c r="E24">
-        <v>0.03069309971116496</v>
+        <v>0.0546401293460157</v>
       </c>
       <c r="F24">
-        <v>3.877533265714561</v>
+        <v>0.9020533643336748</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0.006297659349874862</v>
+      </c>
+      <c r="I24">
+        <v>0.00688979747265428</v>
+      </c>
+      <c r="J24">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0.08869899838876449</v>
-      </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.5149474418764939</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.06783367323597922</v>
       </c>
       <c r="M24">
-        <v>1.288953353216201</v>
+        <v>1.177736469494704</v>
       </c>
       <c r="N24">
-        <v>1.223793284929954</v>
+        <v>0.2052142850410235</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.2833811254253149</v>
+      </c>
+      <c r="P24">
+        <v>1.024954417474208</v>
+      </c>
+      <c r="Q24">
+        <v>2.270631834250963</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.575770145450917</v>
+        <v>1.073504538597433</v>
       </c>
       <c r="C25">
-        <v>1.229067160562465</v>
+        <v>0.1195679638926563</v>
       </c>
       <c r="D25">
-        <v>0.006992834539009785</v>
+        <v>0.08389915210671717</v>
       </c>
       <c r="E25">
-        <v>0.02869716301624337</v>
+        <v>0.05025461966810951</v>
       </c>
       <c r="F25">
-        <v>3.299703695764293</v>
+        <v>0.8573285506914274</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0.01002213415210807</v>
+      </c>
+      <c r="I25">
+        <v>0.01037867531667835</v>
+      </c>
+      <c r="J25">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0.08081423821383993</v>
-      </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.5087371347784853</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.06430140666441986</v>
       </c>
       <c r="M25">
-        <v>1.046247228712105</v>
+        <v>0.9669959442132097</v>
       </c>
       <c r="N25">
-        <v>1.261089376800271</v>
+        <v>0.1763027536611546</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.2354059809398734</v>
+      </c>
+      <c r="P25">
+        <v>1.083052429196458</v>
+      </c>
+      <c r="Q25">
+        <v>2.194497470311092</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_42/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9093787617316309</v>
+        <v>0.8651415051379843</v>
       </c>
       <c r="C2">
-        <v>0.1049969821428292</v>
+        <v>0.1038950098973999</v>
       </c>
       <c r="D2">
-        <v>0.07315718783826242</v>
+        <v>0.0762598007676516</v>
       </c>
       <c r="E2">
-        <v>0.04714035791882942</v>
+        <v>0.04630380203100515</v>
       </c>
       <c r="F2">
-        <v>0.830689151101474</v>
+        <v>0.7767194514185434</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01346736940191942</v>
+        <v>0.01134127340843384</v>
       </c>
       <c r="I2">
-        <v>0.01289337901290466</v>
+        <v>0.009705580731695029</v>
       </c>
       <c r="J2">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153801</v>
       </c>
       <c r="K2">
-        <v>0.5083933709423114</v>
+        <v>0.4566600369281346</v>
       </c>
       <c r="L2">
-        <v>0.06179108715326187</v>
+        <v>0.196431786910793</v>
       </c>
       <c r="M2">
-        <v>0.8124035030612333</v>
+        <v>0.1480284038267428</v>
       </c>
       <c r="N2">
-        <v>0.1541225488111593</v>
+        <v>0.05924519895110603</v>
       </c>
       <c r="O2">
-        <v>0.2004904109204908</v>
+        <v>0.8127829408269918</v>
       </c>
       <c r="P2">
-        <v>1.128954884851011</v>
+        <v>0.1693364099121126</v>
       </c>
       <c r="Q2">
-        <v>2.156510820830647</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.1976260845597935</v>
+      </c>
+      <c r="R2">
+        <v>1.078564020428833</v>
+      </c>
+      <c r="S2">
+        <v>1.990335287946507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7943332212936127</v>
+        <v>0.7577796430062165</v>
       </c>
       <c r="C3">
-        <v>0.09609051188253659</v>
+        <v>0.09232073169908261</v>
       </c>
       <c r="D3">
-        <v>0.06606308754712842</v>
+        <v>0.06885935531909837</v>
       </c>
       <c r="E3">
-        <v>0.04493196417874756</v>
+        <v>0.04428029622720686</v>
       </c>
       <c r="F3">
-        <v>0.8113884350800973</v>
+        <v>0.7614716371218222</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.01624888068686337</v>
+        <v>0.01375860102033893</v>
       </c>
       <c r="I3">
-        <v>0.01548613872958304</v>
+        <v>0.01172064368674119</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153705</v>
       </c>
       <c r="K3">
-        <v>0.5069042007632163</v>
+        <v>0.4575860697037797</v>
       </c>
       <c r="L3">
-        <v>0.05992467850882566</v>
+        <v>0.2005154652630488</v>
       </c>
       <c r="M3">
-        <v>0.7072966471600068</v>
+        <v>0.146326611956324</v>
       </c>
       <c r="N3">
-        <v>0.1397856491328469</v>
+        <v>0.0575577113323309</v>
       </c>
       <c r="O3">
-        <v>0.1766066342473316</v>
+        <v>0.7080499934197775</v>
       </c>
       <c r="P3">
-        <v>1.160879207510156</v>
+        <v>0.1537908223380171</v>
       </c>
       <c r="Q3">
-        <v>2.12715757258286</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1741792775383715</v>
+      </c>
+      <c r="R3">
+        <v>1.108486025395683</v>
+      </c>
+      <c r="S3">
+        <v>1.971808513967233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7234084916101722</v>
+        <v>0.6914141741575008</v>
       </c>
       <c r="C4">
-        <v>0.09066422157761878</v>
+        <v>0.08532256417903028</v>
       </c>
       <c r="D4">
-        <v>0.06173060809209119</v>
+        <v>0.06434485234757403</v>
       </c>
       <c r="E4">
-        <v>0.04356313916061616</v>
+        <v>0.04302358487576363</v>
       </c>
       <c r="F4">
-        <v>0.8000162463827252</v>
+        <v>0.7524925303752781</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.01815879625722883</v>
+        <v>0.01542237701338117</v>
       </c>
       <c r="I4">
-        <v>0.01729925102860763</v>
+        <v>0.0131485091469532</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153784</v>
       </c>
       <c r="K4">
-        <v>0.5062107726307374</v>
+        <v>0.4583035872082988</v>
       </c>
       <c r="L4">
-        <v>0.05874252163444638</v>
+        <v>0.2030730668662315</v>
       </c>
       <c r="M4">
-        <v>0.6426967679210804</v>
+        <v>0.1458518208820596</v>
       </c>
       <c r="N4">
-        <v>0.1310354275477863</v>
+        <v>0.05648648534111356</v>
       </c>
       <c r="O4">
-        <v>0.1619287029748762</v>
+        <v>0.6436418967464022</v>
       </c>
       <c r="P4">
-        <v>1.181082964896552</v>
+        <v>0.1443300569082169</v>
       </c>
       <c r="Q4">
-        <v>2.110502972121438</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.159756763522644</v>
+      </c>
+      <c r="R4">
+        <v>1.127487113639381</v>
+      </c>
+      <c r="S4">
+        <v>1.96152184861765</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6938182478282613</v>
+        <v>0.6636538339326989</v>
       </c>
       <c r="C5">
-        <v>0.08862118548202602</v>
+        <v>0.08267686944828512</v>
       </c>
       <c r="D5">
-        <v>0.05999596060600254</v>
+        <v>0.06253795885400137</v>
       </c>
       <c r="E5">
-        <v>0.04298736040273887</v>
+        <v>0.04249340639287169</v>
       </c>
       <c r="F5">
-        <v>0.7950543476408001</v>
+        <v>0.7484959500347372</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.01899174925528668</v>
+        <v>0.01614904394600056</v>
       </c>
       <c r="I5">
-        <v>0.01818223295538512</v>
+        <v>0.01387861405089552</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153798</v>
       </c>
       <c r="K5">
-        <v>0.5056424266908763</v>
+        <v>0.4583132140407997</v>
       </c>
       <c r="L5">
-        <v>0.05823182451828046</v>
+        <v>0.203969357930486</v>
       </c>
       <c r="M5">
-        <v>0.6163030736101831</v>
+        <v>0.1457202316463171</v>
       </c>
       <c r="N5">
-        <v>0.1275903838710732</v>
+        <v>0.05602303574665601</v>
       </c>
       <c r="O5">
-        <v>0.1559047565222258</v>
+        <v>0.6173171960322179</v>
       </c>
       <c r="P5">
-        <v>1.18934035801583</v>
+        <v>0.1406066191925959</v>
       </c>
       <c r="Q5">
-        <v>2.102767059150111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1538339264600097</v>
+      </c>
+      <c r="R5">
+        <v>1.13529542730164</v>
+      </c>
+      <c r="S5">
+        <v>1.95636172558595</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6881481526846756</v>
+        <v>0.6582989202750582</v>
       </c>
       <c r="C6">
-        <v>0.08847828171204952</v>
+        <v>0.08246153434388503</v>
       </c>
       <c r="D6">
-        <v>0.05973930389921378</v>
+        <v>0.06226987218902025</v>
       </c>
       <c r="E6">
-        <v>0.04287369552301179</v>
+        <v>0.04238759971519102</v>
       </c>
       <c r="F6">
-        <v>0.7936938371770452</v>
+        <v>0.7473112260450776</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.01913949798281084</v>
+        <v>0.0162782285830772</v>
       </c>
       <c r="I6">
-        <v>0.01844937134542235</v>
+        <v>0.01413559253174146</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142333</v>
       </c>
       <c r="K6">
-        <v>0.5051356814982988</v>
+        <v>0.4579271079922904</v>
       </c>
       <c r="L6">
-        <v>0.05812252852470401</v>
+        <v>0.2039259307763075</v>
       </c>
       <c r="M6">
-        <v>0.6118592000128444</v>
+        <v>0.1456073695336535</v>
       </c>
       <c r="N6">
-        <v>0.1271520434902413</v>
+        <v>0.05592378028798084</v>
       </c>
       <c r="O6">
-        <v>0.1548569742203796</v>
+        <v>0.6128839617770154</v>
       </c>
       <c r="P6">
-        <v>1.190569699060519</v>
+        <v>0.1401265180921456</v>
       </c>
       <c r="Q6">
-        <v>2.099933499393117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1528029169527265</v>
+      </c>
+      <c r="R6">
+        <v>1.136492946681198</v>
+      </c>
+      <c r="S6">
+        <v>1.954013371645914</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7209485755083165</v>
+        <v>0.6890184902736678</v>
       </c>
       <c r="C7">
-        <v>0.09117276547341646</v>
+        <v>0.08589866371044508</v>
       </c>
       <c r="D7">
-        <v>0.06179213412838891</v>
+        <v>0.06440672910653689</v>
       </c>
       <c r="E7">
-        <v>0.04350675163810891</v>
+        <v>0.04296870323014268</v>
       </c>
       <c r="F7">
-        <v>0.7984660325569664</v>
+        <v>0.7510037895649262</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.01818675811104864</v>
+        <v>0.01544737277573252</v>
       </c>
       <c r="I7">
-        <v>0.0176144132582694</v>
+        <v>0.01350201346803992</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.07593571568737367</v>
       </c>
       <c r="K7">
-        <v>0.5050696136934363</v>
+        <v>0.4572436965181801</v>
       </c>
       <c r="L7">
-        <v>0.0586707044848378</v>
+        <v>0.2025733679862398</v>
       </c>
       <c r="M7">
-        <v>0.6421761227338294</v>
+        <v>0.1455655364393476</v>
       </c>
       <c r="N7">
-        <v>0.1313527386500652</v>
+        <v>0.05642153747555145</v>
       </c>
       <c r="O7">
-        <v>0.1617180048804379</v>
+        <v>0.643121496268904</v>
       </c>
       <c r="P7">
-        <v>1.180795602839093</v>
+        <v>0.1446548993028145</v>
       </c>
       <c r="Q7">
-        <v>2.106118276460549</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1595479490527651</v>
+      </c>
+      <c r="R7">
+        <v>1.127314271888621</v>
+      </c>
+      <c r="S7">
+        <v>1.95734824871613</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8670155832988939</v>
+        <v>0.8255218849005814</v>
       </c>
       <c r="C8">
-        <v>0.1026339201469426</v>
+        <v>0.1007102315400772</v>
       </c>
       <c r="D8">
-        <v>0.0708190729209619</v>
+        <v>0.07381673760998808</v>
       </c>
       <c r="E8">
-        <v>0.04631761451255123</v>
+        <v>0.04554651531710441</v>
       </c>
       <c r="F8">
-        <v>0.8219790258908048</v>
+        <v>0.7694997610869621</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0144023641275168</v>
+        <v>0.01215364109111663</v>
       </c>
       <c r="I8">
-        <v>0.01410582853426945</v>
+        <v>0.0107760447061338</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284103</v>
       </c>
       <c r="K8">
-        <v>0.5063439957937597</v>
+        <v>0.4555683404250068</v>
       </c>
       <c r="L8">
-        <v>0.06107068365255408</v>
+        <v>0.1972164161353547</v>
       </c>
       <c r="M8">
-        <v>0.7759505730369369</v>
+        <v>0.1468999568583094</v>
       </c>
       <c r="N8">
-        <v>0.1496522095390063</v>
+        <v>0.05859568315432018</v>
       </c>
       <c r="O8">
-        <v>0.1920844676434115</v>
+        <v>0.7764665968119857</v>
       </c>
       <c r="P8">
-        <v>1.139369209259607</v>
+        <v>0.1644594692903496</v>
       </c>
       <c r="Q8">
-        <v>2.140467771696919</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1893744505802637</v>
+      </c>
+      <c r="R8">
+        <v>1.088462057515537</v>
+      </c>
+      <c r="S8">
+        <v>1.978348600423161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.154990990338604</v>
+        <v>1.093362764894891</v>
       </c>
       <c r="C9">
-        <v>0.1245557694685147</v>
+        <v>0.1295915292299696</v>
       </c>
       <c r="D9">
-        <v>0.08857010557673561</v>
+        <v>0.09236366594239342</v>
       </c>
       <c r="E9">
-        <v>0.05182070047369258</v>
+        <v>0.05057850921132889</v>
       </c>
       <c r="F9">
-        <v>0.8746923228848118</v>
+        <v>0.8114971996000619</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.008630068827939444</v>
+        <v>0.007159486056813102</v>
       </c>
       <c r="I9">
-        <v>0.00858775509679699</v>
+        <v>0.006473975183571845</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>0.5126625901939548</v>
+        <v>0.4553687022410813</v>
       </c>
       <c r="L9">
-        <v>0.06561501071080134</v>
+        <v>0.187920872882902</v>
       </c>
       <c r="M9">
-        <v>1.038269857657326</v>
+        <v>0.1546476578758949</v>
       </c>
       <c r="N9">
-        <v>0.185348461536762</v>
+        <v>0.06269234997541506</v>
       </c>
       <c r="O9">
-        <v>0.2517975839509354</v>
+        <v>1.037616868298699</v>
       </c>
       <c r="P9">
-        <v>1.063643267136899</v>
+        <v>0.2033360434282514</v>
       </c>
       <c r="Q9">
-        <v>2.226762897184614</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2479190769088895</v>
+      </c>
+      <c r="R9">
+        <v>1.017752607447505</v>
+      </c>
+      <c r="S9">
+        <v>2.035827954314328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.358453649464536</v>
+        <v>1.282146225618817</v>
       </c>
       <c r="C10">
-        <v>0.1421291761092647</v>
+        <v>0.1526147998362575</v>
       </c>
       <c r="D10">
-        <v>0.1002632947621009</v>
+        <v>0.1046059701845934</v>
       </c>
       <c r="E10">
-        <v>0.05431975493904417</v>
+        <v>0.05278613021825862</v>
       </c>
       <c r="F10">
-        <v>0.9065752737334378</v>
+        <v>0.8359746976758871</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.005855021602109378</v>
+        <v>0.00481248936334433</v>
       </c>
       <c r="I10">
-        <v>0.005948080827860913</v>
+        <v>0.004567163228362148</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>0.5135887795159206</v>
+        <v>0.451971986494577</v>
       </c>
       <c r="L10">
-        <v>0.06789672164329108</v>
+        <v>0.1798991869017534</v>
       </c>
       <c r="M10">
-        <v>1.228733678076338</v>
+        <v>0.1615222002544421</v>
       </c>
       <c r="N10">
-        <v>0.2052556934307574</v>
+        <v>0.06485237116486697</v>
       </c>
       <c r="O10">
-        <v>0.2914095682541316</v>
+        <v>1.22705008101758</v>
       </c>
       <c r="P10">
-        <v>1.010191390991363</v>
+        <v>0.2253114577877398</v>
       </c>
       <c r="Q10">
-        <v>2.27558999923707</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.286674235172903</v>
+      </c>
+      <c r="R10">
+        <v>0.9690021345902142</v>
+      </c>
+      <c r="S10">
+        <v>2.064819693853678</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.39588617335599</v>
+        <v>1.320964141599291</v>
       </c>
       <c r="C11">
-        <v>0.1587340979502443</v>
+        <v>0.1711477114792501</v>
       </c>
       <c r="D11">
-        <v>0.09260281079836119</v>
+        <v>0.09664999545151431</v>
       </c>
       <c r="E11">
-        <v>0.04440621172607706</v>
+        <v>0.04327225036204307</v>
       </c>
       <c r="F11">
-        <v>0.8444025934949977</v>
+        <v>0.7784688056245841</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.02438389534577468</v>
+        <v>0.02337791019475688</v>
       </c>
       <c r="I11">
-        <v>0.005869016837771746</v>
+        <v>0.004758768660186874</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>0.475875825332956</v>
+        <v>0.4190717122047118</v>
       </c>
       <c r="L11">
-        <v>0.0654840882948311</v>
+        <v>0.1655428320635686</v>
       </c>
       <c r="M11">
-        <v>1.295043007657483</v>
+        <v>0.1522648329519249</v>
       </c>
       <c r="N11">
-        <v>0.1595829512963221</v>
+        <v>0.06405735371985255</v>
       </c>
       <c r="O11">
-        <v>0.2731843573244284</v>
+        <v>1.293438040283746</v>
       </c>
       <c r="P11">
-        <v>0.9830800431377398</v>
+        <v>0.1769576414519705</v>
       </c>
       <c r="Q11">
-        <v>2.121574850657538</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2687066638559301</v>
+      </c>
+      <c r="R11">
+        <v>0.9508261153351256</v>
+      </c>
+      <c r="S11">
+        <v>1.924818542290552</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.387014549010416</v>
+        <v>1.316449502352611</v>
       </c>
       <c r="C12">
-        <v>0.1686921124397998</v>
+        <v>0.1812224595185938</v>
       </c>
       <c r="D12">
-        <v>0.08381009201090706</v>
+        <v>0.08749673461754526</v>
       </c>
       <c r="E12">
-        <v>0.0379967125844356</v>
+        <v>0.03723195851549121</v>
       </c>
       <c r="F12">
-        <v>0.7885832851984844</v>
+        <v>0.7279382585371508</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.06326823734475084</v>
+        <v>0.06224349118285488</v>
       </c>
       <c r="I12">
-        <v>0.005777492672762286</v>
+        <v>0.00468718123581624</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.4466439634531447</v>
+        <v>0.3945156790738125</v>
       </c>
       <c r="L12">
-        <v>0.06871513733301349</v>
+        <v>0.1563129362413349</v>
       </c>
       <c r="M12">
-        <v>1.310541900275922</v>
+        <v>0.1435206968047957</v>
       </c>
       <c r="N12">
-        <v>0.1219565511231693</v>
+        <v>0.06854783000953013</v>
       </c>
       <c r="O12">
-        <v>0.2501992643650581</v>
+        <v>1.309251309527838</v>
       </c>
       <c r="P12">
-        <v>0.9764760962383683</v>
+        <v>0.1367420950280334</v>
       </c>
       <c r="Q12">
-        <v>1.990212613248161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2461160276699097</v>
+      </c>
+      <c r="R12">
+        <v>0.9499743261500768</v>
+      </c>
+      <c r="S12">
+        <v>1.808786939452119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.338759391933394</v>
+        <v>1.275157712924653</v>
       </c>
       <c r="C13">
-        <v>0.1748555291626275</v>
+        <v>0.1862325555927811</v>
       </c>
       <c r="D13">
-        <v>0.07382010910895787</v>
+        <v>0.07708398647307746</v>
       </c>
       <c r="E13">
-        <v>0.03381803314421017</v>
+        <v>0.03340651848458687</v>
       </c>
       <c r="F13">
-        <v>0.7320604784913414</v>
+        <v>0.677505597838433</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1194837995016229</v>
+        <v>0.1183901443793189</v>
       </c>
       <c r="I13">
-        <v>0.006077216424868581</v>
+        <v>0.004888038483214174</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.102658464312043</v>
       </c>
       <c r="K13">
-        <v>0.4204118110323876</v>
+        <v>0.3732052188094066</v>
       </c>
       <c r="L13">
-        <v>0.07619962848990269</v>
+        <v>0.1494155050735451</v>
       </c>
       <c r="M13">
-        <v>1.287388706991067</v>
+        <v>0.134269662854269</v>
       </c>
       <c r="N13">
-        <v>0.08905674507391126</v>
+        <v>0.07704847811102411</v>
       </c>
       <c r="O13">
-        <v>0.2221713155306766</v>
+        <v>1.286616184097824</v>
       </c>
       <c r="P13">
-        <v>0.9839824850947281</v>
+        <v>0.1012654061495297</v>
       </c>
       <c r="Q13">
-        <v>1.861683477779366</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2185998199007031</v>
+      </c>
+      <c r="R13">
+        <v>0.9612229752771562</v>
+      </c>
+      <c r="S13">
+        <v>1.697643106557308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.286719845333124</v>
+        <v>1.22912875235113</v>
       </c>
       <c r="C14">
-        <v>0.1776736331976423</v>
+        <v>0.1876694603832618</v>
       </c>
       <c r="D14">
-        <v>0.06641287922651884</v>
+        <v>0.06935984191372313</v>
       </c>
       <c r="E14">
-        <v>0.03222480248070764</v>
+        <v>0.03204117932475575</v>
       </c>
       <c r="F14">
-        <v>0.6922860138575402</v>
+        <v>0.6422701613787254</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1692628658234554</v>
+        <v>0.1680977759770599</v>
       </c>
       <c r="I14">
-        <v>0.006570514745735778</v>
+        <v>0.005270212668896157</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.4034083921095046</v>
+        <v>0.3596917832272553</v>
       </c>
       <c r="L14">
-        <v>0.08402077907827987</v>
+        <v>0.1454534124135076</v>
       </c>
       <c r="M14">
-        <v>1.253683175329428</v>
+        <v>0.1277133584613779</v>
       </c>
       <c r="N14">
-        <v>0.06917929682439805</v>
+        <v>0.08542963455231245</v>
       </c>
       <c r="O14">
-        <v>0.2005077193021414</v>
+        <v>1.253357625095703</v>
       </c>
       <c r="P14">
-        <v>0.9959980725575122</v>
+        <v>0.07965935464644502</v>
       </c>
       <c r="Q14">
-        <v>1.77296690587292</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.1973365531318763</v>
+      </c>
+      <c r="R14">
+        <v>0.9748417120457589</v>
+      </c>
+      <c r="S14">
+        <v>1.62180181658573</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.265027590141756</v>
+        <v>1.20943392932233</v>
       </c>
       <c r="C15">
-        <v>0.1777448174960341</v>
+        <v>0.1871871137481378</v>
       </c>
       <c r="D15">
-        <v>0.06436095995865543</v>
+        <v>0.06721837935798192</v>
       </c>
       <c r="E15">
-        <v>0.03199504901551631</v>
+        <v>0.03186511556014959</v>
       </c>
       <c r="F15">
-        <v>0.6819106314539951</v>
+        <v>0.6331841495586019</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1819832381968354</v>
+        <v>0.1807840384743997</v>
       </c>
       <c r="I15">
-        <v>0.006918136378555317</v>
+        <v>0.005583871462628842</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657407966</v>
       </c>
       <c r="K15">
-        <v>0.3994701050765954</v>
+        <v>0.3566865030430115</v>
       </c>
       <c r="L15">
-        <v>0.08609585013241983</v>
+        <v>0.1447426534868708</v>
       </c>
       <c r="M15">
-        <v>1.237257026216184</v>
+        <v>0.1259566936593153</v>
       </c>
       <c r="N15">
-        <v>0.06471004074575859</v>
+        <v>0.08759939900712865</v>
       </c>
       <c r="O15">
-        <v>0.1940938305368292</v>
+        <v>1.237078553269754</v>
       </c>
       <c r="P15">
-        <v>1.001359532964916</v>
+        <v>0.07477067455840825</v>
       </c>
       <c r="Q15">
-        <v>1.750456776762661</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.1910433547925194</v>
+      </c>
+      <c r="R15">
+        <v>0.9802610324142762</v>
+      </c>
+      <c r="S15">
+        <v>1.602920131469091</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.187115843989972</v>
+        <v>1.136304286551621</v>
       </c>
       <c r="C16">
-        <v>0.1689871088860002</v>
+        <v>0.1762548400815831</v>
       </c>
       <c r="D16">
-        <v>0.06165042656013497</v>
+        <v>0.06437889616636738</v>
       </c>
       <c r="E16">
-        <v>0.03181950708815962</v>
+        <v>0.03169685703162117</v>
       </c>
       <c r="F16">
-        <v>0.6791485487204341</v>
+        <v>0.6320925312768537</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.170419098840128</v>
+        <v>0.1690416061973394</v>
       </c>
       <c r="I16">
-        <v>0.008105207533222192</v>
+        <v>0.006516035940852483</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>0.4037315520626628</v>
+        <v>0.3615871804900763</v>
       </c>
       <c r="L16">
-        <v>0.08325801584384962</v>
+        <v>0.1480175791364431</v>
       </c>
       <c r="M16">
-        <v>1.160101277028843</v>
+        <v>0.1253261761218827</v>
       </c>
       <c r="N16">
-        <v>0.06382084403426447</v>
+        <v>0.08445448123937283</v>
       </c>
       <c r="O16">
-        <v>0.1834360275751656</v>
+        <v>1.160268987069827</v>
       </c>
       <c r="P16">
-        <v>1.020326144359014</v>
+        <v>0.073727525584804</v>
       </c>
       <c r="Q16">
-        <v>1.753105598906956</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1806131320428968</v>
+      </c>
+      <c r="R16">
+        <v>0.9960610123824019</v>
+      </c>
+      <c r="S16">
+        <v>1.609866749503524</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.154877893662643</v>
+        <v>1.104557482497938</v>
       </c>
       <c r="C17">
-        <v>0.1608096484532098</v>
+        <v>0.1671929228904219</v>
       </c>
       <c r="D17">
-        <v>0.06344377641247689</v>
+        <v>0.06623651479515758</v>
       </c>
       <c r="E17">
-        <v>0.03230327018432866</v>
+        <v>0.03207837698683691</v>
       </c>
       <c r="F17">
-        <v>0.6979840187506809</v>
+        <v>0.6498805800770171</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1333282318257432</v>
+        <v>0.1318491498459053</v>
       </c>
       <c r="I17">
-        <v>0.008793740635232083</v>
+        <v>0.007068197128174525</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234428</v>
       </c>
       <c r="K17">
-        <v>0.4159198804819297</v>
+        <v>0.3724897869551782</v>
       </c>
       <c r="L17">
-        <v>0.07648784962759336</v>
+        <v>0.1528884407242224</v>
       </c>
       <c r="M17">
-        <v>1.118924727842824</v>
+        <v>0.1281463798048126</v>
       </c>
       <c r="N17">
-        <v>0.07307492366751944</v>
+        <v>0.07719845853673135</v>
       </c>
       <c r="O17">
-        <v>0.1865808250415775</v>
+        <v>1.119116978236434</v>
       </c>
       <c r="P17">
-        <v>1.028586346917223</v>
+        <v>0.08372255735940115</v>
       </c>
       <c r="Q17">
-        <v>1.801993440926069</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1837288596178475</v>
+      </c>
+      <c r="R17">
+        <v>1.001202503926208</v>
+      </c>
+      <c r="S17">
+        <v>1.655433186412523</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.159699832860241</v>
+        <v>1.106275943018915</v>
       </c>
       <c r="C18">
-        <v>0.1518411024099464</v>
+        <v>0.1581825732525459</v>
       </c>
       <c r="D18">
-        <v>0.06944181645606307</v>
+        <v>0.0724766632771221</v>
       </c>
       <c r="E18">
-        <v>0.03461662682743238</v>
+        <v>0.03416743847107861</v>
       </c>
       <c r="F18">
-        <v>0.7393365752328336</v>
+        <v>0.6876136457670938</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.08065732169414019</v>
+        <v>0.07915640459405182</v>
       </c>
       <c r="I18">
-        <v>0.008734064318032253</v>
+        <v>0.006923758723480056</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.0759585914630927</v>
       </c>
       <c r="K18">
-        <v>0.4376778457435009</v>
+        <v>0.3910108026385188</v>
       </c>
       <c r="L18">
-        <v>0.06821334406194168</v>
+        <v>0.1602777344046924</v>
       </c>
       <c r="M18">
-        <v>1.103872086281939</v>
+        <v>0.1344408789470108</v>
       </c>
       <c r="N18">
-        <v>0.09487812053982481</v>
+        <v>0.06815912816253267</v>
       </c>
       <c r="O18">
-        <v>0.202464298501976</v>
+        <v>1.103834152861708</v>
       </c>
       <c r="P18">
-        <v>1.030539343299811</v>
+        <v>0.1071900174404874</v>
       </c>
       <c r="Q18">
-        <v>1.900814301215703</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.1993563831695297</v>
+      </c>
+      <c r="R18">
+        <v>0.9993307046028477</v>
+      </c>
+      <c r="S18">
+        <v>1.743645302415104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.189984655201329</v>
+        <v>1.130875184694247</v>
       </c>
       <c r="C19">
-        <v>0.1444570476575819</v>
+        <v>0.151464073595335</v>
       </c>
       <c r="D19">
-        <v>0.07886368099595842</v>
+        <v>0.08228344221691941</v>
       </c>
       <c r="E19">
-        <v>0.03998244412301677</v>
+        <v>0.0391977769249463</v>
       </c>
       <c r="F19">
-        <v>0.7950096533355904</v>
+        <v>0.7377497788251404</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.03490208849443377</v>
+        <v>0.03346708380949792</v>
       </c>
       <c r="I19">
-        <v>0.008647062829127528</v>
+        <v>0.006915163919768652</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768449891</v>
       </c>
       <c r="K19">
-        <v>0.4649764808708312</v>
+        <v>0.4136805248043132</v>
       </c>
       <c r="L19">
-        <v>0.06335119792874089</v>
+        <v>0.1689160870490944</v>
       </c>
       <c r="M19">
-        <v>1.110401877562367</v>
+        <v>0.1427802661859694</v>
       </c>
       <c r="N19">
-        <v>0.1301714535238219</v>
+        <v>0.06225583638988486</v>
       </c>
       <c r="O19">
-        <v>0.2280116948667761</v>
+        <v>1.109950101129556</v>
       </c>
       <c r="P19">
-        <v>1.030686099793581</v>
+        <v>0.1449610554914855</v>
       </c>
       <c r="Q19">
-        <v>2.029301927671327</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2244684686205325</v>
+      </c>
+      <c r="R19">
+        <v>0.995122253375623</v>
+      </c>
+      <c r="S19">
+        <v>1.856208529375991</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.298268370465138</v>
+        <v>1.226094435787985</v>
       </c>
       <c r="C20">
-        <v>0.1392765718744471</v>
+        <v>0.1486183947785946</v>
       </c>
       <c r="D20">
-        <v>0.09738779238048068</v>
+        <v>0.1015873949043282</v>
       </c>
       <c r="E20">
-        <v>0.05345773790780761</v>
+        <v>0.05200751789447366</v>
       </c>
       <c r="F20">
-        <v>0.8931089537521046</v>
+        <v>0.8247342551387646</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.00652556692781836</v>
+        <v>0.005374984233664115</v>
       </c>
       <c r="I20">
-        <v>0.007453343511681254</v>
+        <v>0.006042266856907119</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835614</v>
       </c>
       <c r="K20">
-        <v>0.5096492734426299</v>
+        <v>0.4495374669956149</v>
       </c>
       <c r="L20">
-        <v>0.0670841392937982</v>
+        <v>0.180773924130925</v>
       </c>
       <c r="M20">
-        <v>1.178064184696922</v>
+        <v>0.1582841852526329</v>
       </c>
       <c r="N20">
-        <v>0.2008642788396386</v>
+        <v>0.06410475342739819</v>
       </c>
       <c r="O20">
-        <v>0.2804214274543355</v>
+        <v>1.176672835977996</v>
       </c>
       <c r="P20">
-        <v>1.023188513417094</v>
+        <v>0.2203988085696551</v>
       </c>
       <c r="Q20">
-        <v>2.248336668802551</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2759221741430977</v>
+      </c>
+      <c r="R20">
+        <v>0.9812945802700348</v>
+      </c>
+      <c r="S20">
+        <v>2.043741437190533</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.464463739255649</v>
+        <v>1.379289242159615</v>
       </c>
       <c r="C21">
-        <v>0.1512899020448515</v>
+        <v>0.1650102100910402</v>
       </c>
       <c r="D21">
-        <v>0.1087384947922487</v>
+        <v>0.113465959668801</v>
       </c>
       <c r="E21">
-        <v>0.05767250121888878</v>
+        <v>0.05589876754498846</v>
       </c>
       <c r="F21">
-        <v>0.9330652624913611</v>
+        <v>0.857373806912797</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.004255789873267468</v>
+        <v>0.003421130654459703</v>
       </c>
       <c r="I21">
-        <v>0.00555322171977668</v>
+        <v>0.004638780217606886</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752089</v>
       </c>
       <c r="K21">
-        <v>0.5182464449901012</v>
+        <v>0.453446343920767</v>
       </c>
       <c r="L21">
-        <v>0.0701882405166856</v>
+        <v>0.1770474867315883</v>
       </c>
       <c r="M21">
-        <v>1.327947412804264</v>
+        <v>0.1668011598441872</v>
       </c>
       <c r="N21">
-        <v>0.2266501604397888</v>
+        <v>0.06680963056650402</v>
       </c>
       <c r="O21">
-        <v>0.3174140547028372</v>
+        <v>1.325573091728273</v>
       </c>
       <c r="P21">
-        <v>0.9848347758200422</v>
+        <v>0.2484793094202331</v>
       </c>
       <c r="Q21">
-        <v>2.322349711302053</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3121138017148368</v>
+      </c>
+      <c r="R21">
+        <v>0.945307928300851</v>
+      </c>
+      <c r="S21">
+        <v>2.097828277992534</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.572702227904415</v>
+        <v>1.479241952668815</v>
       </c>
       <c r="C22">
-        <v>0.1589355434894202</v>
+        <v>0.1754097246863608</v>
       </c>
       <c r="D22">
-        <v>0.1152962018510948</v>
+        <v>0.1203385177677916</v>
       </c>
       <c r="E22">
-        <v>0.05973370056304894</v>
+        <v>0.05777584014890635</v>
       </c>
       <c r="F22">
-        <v>0.9571651931021137</v>
+        <v>0.8769645462187228</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.003163503245952826</v>
+        <v>0.002500052027423538</v>
       </c>
       <c r="I22">
-        <v>0.004243113787461894</v>
+        <v>0.003545824010826593</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>0.523320185474546</v>
+        <v>0.4556347190285344</v>
       </c>
       <c r="L22">
-        <v>0.07182795653200191</v>
+        <v>0.1744190954710767</v>
       </c>
       <c r="M22">
-        <v>1.425101882101131</v>
+        <v>0.1727246884061095</v>
       </c>
       <c r="N22">
-        <v>0.2396047044436358</v>
+        <v>0.06827575683856679</v>
       </c>
       <c r="O22">
-        <v>0.3396505257456539</v>
+        <v>1.422061269016183</v>
       </c>
       <c r="P22">
-        <v>0.960241736103058</v>
+        <v>0.2627235769013225</v>
       </c>
       <c r="Q22">
-        <v>2.367532338537302</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3338467371733245</v>
+      </c>
+      <c r="R22">
+        <v>0.9224551809225137</v>
+      </c>
+      <c r="S22">
+        <v>2.130692415075515</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.517461918098064</v>
+        <v>1.428363941470593</v>
       </c>
       <c r="C23">
-        <v>0.1541770927616568</v>
+        <v>0.1690475052320579</v>
       </c>
       <c r="D23">
-        <v>0.1116906822619086</v>
+        <v>0.1165624632237723</v>
       </c>
       <c r="E23">
-        <v>0.05868986147406297</v>
+        <v>0.05682865802583059</v>
       </c>
       <c r="F23">
-        <v>0.9459662558663453</v>
+        <v>0.8680953495909165</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.003716988211737493</v>
+        <v>0.002965610613189895</v>
       </c>
       <c r="I23">
-        <v>0.004582391978887657</v>
+        <v>0.003712940243602247</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787806356</v>
       </c>
       <c r="K23">
-        <v>0.5218851197352947</v>
+        <v>0.4556187241814129</v>
       </c>
       <c r="L23">
-        <v>0.07102536889788702</v>
+        <v>0.1762131273498433</v>
       </c>
       <c r="M23">
-        <v>1.373449175893597</v>
+        <v>0.16999843969867</v>
       </c>
       <c r="N23">
-        <v>0.2322410268829458</v>
+        <v>0.06755462109293742</v>
       </c>
       <c r="O23">
-        <v>0.3279394085680707</v>
+        <v>1.370768710401364</v>
       </c>
       <c r="P23">
-        <v>0.9735699885845754</v>
+        <v>0.254650070472394</v>
       </c>
       <c r="Q23">
-        <v>2.348195894875602</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3224045068483008</v>
+      </c>
+      <c r="R23">
+        <v>0.9346459434865544</v>
+      </c>
+      <c r="S23">
+        <v>2.117647139272776</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.304015070161</v>
+        <v>1.231213380217298</v>
       </c>
       <c r="C24">
-        <v>0.1374090771780772</v>
+        <v>0.146560166766136</v>
       </c>
       <c r="D24">
-        <v>0.09826542318123188</v>
+        <v>0.1025040035375184</v>
       </c>
       <c r="E24">
-        <v>0.0546401293460157</v>
+        <v>0.05314376503350715</v>
       </c>
       <c r="F24">
-        <v>0.9020533643336748</v>
+        <v>0.8329401902644733</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.006297659349874862</v>
+        <v>0.005158698734776757</v>
       </c>
       <c r="I24">
-        <v>0.00688979747265428</v>
+        <v>0.005386359264464957</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.07636882555361169</v>
       </c>
       <c r="K24">
-        <v>0.5149474418764939</v>
+        <v>0.4541137873334264</v>
       </c>
       <c r="L24">
-        <v>0.06783367323597922</v>
+        <v>0.1825303319698115</v>
       </c>
       <c r="M24">
-        <v>1.177736469494704</v>
+        <v>0.1599495779530109</v>
       </c>
       <c r="N24">
-        <v>0.2052142850410235</v>
+        <v>0.06469078821239371</v>
       </c>
       <c r="O24">
-        <v>0.2833811254253149</v>
+        <v>1.176306471101071</v>
       </c>
       <c r="P24">
-        <v>1.024954417474208</v>
+        <v>0.2250235647114494</v>
       </c>
       <c r="Q24">
-        <v>2.270631834250963</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2788333871932522</v>
+      </c>
+      <c r="R24">
+        <v>0.9821087552560073</v>
+      </c>
+      <c r="S24">
+        <v>2.063815581515371</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.073504538597433</v>
+        <v>1.017564791948075</v>
       </c>
       <c r="C25">
-        <v>0.1195679638926563</v>
+        <v>0.1228311834950517</v>
       </c>
       <c r="D25">
-        <v>0.08389915210671717</v>
+        <v>0.08747532782701484</v>
       </c>
       <c r="E25">
-        <v>0.05025461966810951</v>
+        <v>0.0491435881393798</v>
       </c>
       <c r="F25">
-        <v>0.8573285506914274</v>
+        <v>0.7972320412008997</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.01002213415210807</v>
+        <v>0.008360010930682643</v>
       </c>
       <c r="I25">
-        <v>0.01037867531667835</v>
+        <v>0.008043348214253676</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>0.5087371347784853</v>
+        <v>0.4534402045256982</v>
       </c>
       <c r="L25">
-        <v>0.06430140666441986</v>
+        <v>0.1896552820283226</v>
       </c>
       <c r="M25">
-        <v>0.9669959442132097</v>
+        <v>0.1514128677200475</v>
       </c>
       <c r="N25">
-        <v>0.1763027536611546</v>
+        <v>0.06151367548460751</v>
       </c>
       <c r="O25">
-        <v>0.2354059809398734</v>
+        <v>0.9666983766365718</v>
       </c>
       <c r="P25">
-        <v>1.083052429196458</v>
+        <v>0.1934282977667294</v>
       </c>
       <c r="Q25">
-        <v>2.194497470311092</v>
+        <v>0.2318576813090232</v>
+      </c>
+      <c r="R25">
+        <v>1.036056893622861</v>
+      </c>
+      <c r="S25">
+        <v>2.012020137564207</v>
       </c>
     </row>
   </sheetData>
